--- a/state_results/Rivers/OrouaatMangawhata_44ac812c5f.xlsx
+++ b/state_results/Rivers/OrouaatMangawhata_44ac812c5f.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U120"/>
+  <dimension ref="A1:U137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1153,7 +1153,7 @@
         <v>0.0126</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0364091315614813</v>
+        <v>0.0364278880542198</v>
       </c>
       <c r="H9" t="n">
         <v>0.284281342447847</v>
@@ -1164,7 +1164,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00281</v>
+        <v>0.00295</v>
       </c>
       <c r="M9" t="n">
         <v>0.06534</v>
@@ -1234,7 +1234,7 @@
         <v>0.0126</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0364091315614813</v>
+        <v>0.0364278880542198</v>
       </c>
       <c r="H10" t="n">
         <v>0.284281342447847</v>
@@ -1245,7 +1245,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00281</v>
+        <v>0.00295</v>
       </c>
       <c r="M10" t="n">
         <v>0.06534</v>
@@ -1473,18 +1473,18 @@
         <v>0.625</v>
       </c>
       <c r="G13" t="n">
-        <v>0.695542372881356</v>
+        <v>0.695540677966102</v>
       </c>
       <c r="H13" t="n">
         <v>1.63</v>
       </c>
       <c r="I13" t="n">
-        <v>1.34085</v>
+        <v>1.34107</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.513</v>
+        <v>0.5128</v>
       </c>
       <c r="M13" t="n">
         <v>1.05367</v>
@@ -1550,18 +1550,18 @@
         <v>0.625</v>
       </c>
       <c r="G14" t="n">
-        <v>0.695542372881356</v>
+        <v>0.695540677966102</v>
       </c>
       <c r="H14" t="n">
         <v>1.63</v>
       </c>
       <c r="I14" t="n">
-        <v>1.34085</v>
+        <v>1.34107</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.513</v>
+        <v>0.5128</v>
       </c>
       <c r="M14" t="n">
         <v>1.05367</v>
@@ -2522,7 +2522,7 @@
         <v>0.01247</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0236570551937908</v>
+        <v>0.0236776937096546</v>
       </c>
       <c r="H26" t="n">
         <v>0.0941994614097868</v>
@@ -2533,7 +2533,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.00281</v>
+        <v>0.00295</v>
       </c>
       <c r="M26" t="n">
         <v>0.05244</v>
@@ -2603,7 +2603,7 @@
         <v>0.01247</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0236570551937908</v>
+        <v>0.0236776937096546</v>
       </c>
       <c r="H27" t="n">
         <v>0.0941994614097868</v>
@@ -2614,7 +2614,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.00281</v>
+        <v>0.00295</v>
       </c>
       <c r="M27" t="n">
         <v>0.05244</v>
@@ -2839,21 +2839,21 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.6925</v>
+        <v>0.69285</v>
       </c>
       <c r="G30" t="n">
-        <v>0.729</v>
+        <v>0.728998333333333</v>
       </c>
       <c r="H30" t="n">
         <v>1.63</v>
       </c>
       <c r="I30" t="n">
-        <v>1.3385</v>
+        <v>1.3387</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.709</v>
+        <v>0.70885</v>
       </c>
       <c r="M30" t="n">
         <v>1.079</v>
@@ -2916,21 +2916,21 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.6925</v>
+        <v>0.69285</v>
       </c>
       <c r="G31" t="n">
-        <v>0.729</v>
+        <v>0.728998333333333</v>
       </c>
       <c r="H31" t="n">
         <v>1.63</v>
       </c>
       <c r="I31" t="n">
-        <v>1.3385</v>
+        <v>1.3387</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.709</v>
+        <v>0.70885</v>
       </c>
       <c r="M31" t="n">
         <v>1.079</v>
@@ -3551,10 +3551,10 @@
         <v>390</v>
       </c>
       <c r="G39" t="n">
-        <v>1557.30687257336</v>
+        <v>1354.50933358794</v>
       </c>
       <c r="H39" t="n">
-        <v>23801.4123544015</v>
+        <v>11633.5600152764</v>
       </c>
       <c r="I39" t="n">
         <v>9639</v>
@@ -3636,10 +3636,10 @@
         <v>390</v>
       </c>
       <c r="G40" t="n">
-        <v>1557.30687257336</v>
+        <v>1354.50933358794</v>
       </c>
       <c r="H40" t="n">
-        <v>23801.4123544015</v>
+        <v>11633.5600152764</v>
       </c>
       <c r="I40" t="n">
         <v>9639</v>
@@ -3721,10 +3721,10 @@
         <v>390</v>
       </c>
       <c r="G41" t="n">
-        <v>1557.30687257336</v>
+        <v>1354.50933358794</v>
       </c>
       <c r="H41" t="n">
-        <v>23801.4123544015</v>
+        <v>11633.5600152764</v>
       </c>
       <c r="I41" t="n">
         <v>9639</v>
@@ -3806,10 +3806,10 @@
         <v>390</v>
       </c>
       <c r="G42" t="n">
-        <v>1557.30687257336</v>
+        <v>1354.50933358794</v>
       </c>
       <c r="H42" t="n">
-        <v>23801.4123544015</v>
+        <v>11633.5600152764</v>
       </c>
       <c r="I42" t="n">
         <v>9639</v>
@@ -3891,7 +3891,7 @@
         <v>0.02071</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0285631043678103</v>
+        <v>0.0285840987201545</v>
       </c>
       <c r="H43" t="n">
         <v>0.127055928437573</v>
@@ -3972,7 +3972,7 @@
         <v>0.02071</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0285631043678103</v>
+        <v>0.0285840987201545</v>
       </c>
       <c r="H44" t="n">
         <v>0.127055928437573</v>
@@ -4211,13 +4211,13 @@
         <v>0.795</v>
       </c>
       <c r="G47" t="n">
-        <v>0.779266666666667</v>
+        <v>0.7792416666666671</v>
       </c>
       <c r="H47" t="n">
         <v>1.63</v>
       </c>
       <c r="I47" t="n">
-        <v>1.3385</v>
+        <v>1.3387</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -4288,13 +4288,13 @@
         <v>0.795</v>
       </c>
       <c r="G48" t="n">
-        <v>0.779266666666667</v>
+        <v>0.7792416666666671</v>
       </c>
       <c r="H48" t="n">
         <v>1.63</v>
       </c>
       <c r="I48" t="n">
-        <v>1.3385</v>
+        <v>1.3387</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -4920,7 +4920,7 @@
         <v>370</v>
       </c>
       <c r="G56" t="n">
-        <v>2047.20687257336</v>
+        <v>1844.40933358794</v>
       </c>
       <c r="H56" t="n">
         <v>49000</v>
@@ -5005,7 +5005,7 @@
         <v>370</v>
       </c>
       <c r="G57" t="n">
-        <v>2047.20687257336</v>
+        <v>1844.40933358794</v>
       </c>
       <c r="H57" t="n">
         <v>49000</v>
@@ -5090,7 +5090,7 @@
         <v>370</v>
       </c>
       <c r="G58" t="n">
-        <v>2047.20687257336</v>
+        <v>1844.40933358794</v>
       </c>
       <c r="H58" t="n">
         <v>49000</v>
@@ -5175,7 +5175,7 @@
         <v>370</v>
       </c>
       <c r="G59" t="n">
-        <v>2047.20687257336</v>
+        <v>1844.40933358794</v>
       </c>
       <c r="H59" t="n">
         <v>49000</v>
@@ -5260,7 +5260,7 @@
         <v>0.02705</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0402779116728641</v>
+        <v>0.0403080000294403</v>
       </c>
       <c r="H60" t="n">
         <v>0.25645717923995</v>
@@ -5341,7 +5341,7 @@
         <v>0.02705</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0402779116728641</v>
+        <v>0.0403080000294403</v>
       </c>
       <c r="H61" t="n">
         <v>0.25645717923995</v>
@@ -5422,7 +5422,7 @@
         <v>0.6535</v>
       </c>
       <c r="G62" t="n">
-        <v>0.660714813581641</v>
+        <v>0.660680283928732</v>
       </c>
       <c r="H62" t="n">
         <v>1.52</v>
@@ -5503,7 +5503,7 @@
         <v>0.6535</v>
       </c>
       <c r="G63" t="n">
-        <v>0.660714813581641</v>
+        <v>0.660680283928732</v>
       </c>
       <c r="H63" t="n">
         <v>1.52</v>
@@ -5580,7 +5580,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7695107339555251</v>
+        <v>0.769526420024975</v>
       </c>
       <c r="H64" t="n">
         <v>1.63</v>
@@ -5657,7 +5657,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7695107339555251</v>
+        <v>0.769526420024975</v>
       </c>
       <c r="H65" t="n">
         <v>1.63</v>
@@ -6289,7 +6289,7 @@
         <v>350</v>
       </c>
       <c r="G73" t="n">
-        <v>1923.43071787121</v>
+        <v>1717.19593246231</v>
       </c>
       <c r="H73" t="n">
         <v>49000</v>
@@ -6374,7 +6374,7 @@
         <v>350</v>
       </c>
       <c r="G74" t="n">
-        <v>1923.43071787121</v>
+        <v>1717.19593246231</v>
       </c>
       <c r="H74" t="n">
         <v>49000</v>
@@ -6459,7 +6459,7 @@
         <v>350</v>
       </c>
       <c r="G75" t="n">
-        <v>1923.43071787121</v>
+        <v>1717.19593246231</v>
       </c>
       <c r="H75" t="n">
         <v>49000</v>
@@ -6544,7 +6544,7 @@
         <v>350</v>
       </c>
       <c r="G76" t="n">
-        <v>1923.43071787121</v>
+        <v>1717.19593246231</v>
       </c>
       <c r="H76" t="n">
         <v>49000</v>
@@ -6629,7 +6629,7 @@
         <v>0.03051</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0461342958710417</v>
+        <v>0.0461581491493698</v>
       </c>
       <c r="H77" t="n">
         <v>0.25645717923995</v>
@@ -6710,7 +6710,7 @@
         <v>0.03051</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0461342958710417</v>
+        <v>0.0461581491493698</v>
       </c>
       <c r="H78" t="n">
         <v>0.25645717923995</v>
@@ -6791,7 +6791,7 @@
         <v>0.643</v>
       </c>
       <c r="G79" t="n">
-        <v>0.623691905016457</v>
+        <v>0.623552233061927</v>
       </c>
       <c r="H79" t="n">
         <v>1.52</v>
@@ -6872,7 +6872,7 @@
         <v>0.643</v>
       </c>
       <c r="G80" t="n">
-        <v>0.623691905016457</v>
+        <v>0.623552233061927</v>
       </c>
       <c r="H80" t="n">
         <v>1.52</v>
@@ -6949,7 +6949,7 @@
         <v>0.74</v>
       </c>
       <c r="G81" t="n">
-        <v>0.725332949785279</v>
+        <v>0.725359071211838</v>
       </c>
       <c r="H81" t="n">
         <v>1.63</v>
@@ -7026,7 +7026,7 @@
         <v>0.74</v>
       </c>
       <c r="G82" t="n">
-        <v>0.725332949785279</v>
+        <v>0.725359071211838</v>
       </c>
       <c r="H82" t="n">
         <v>1.63</v>
@@ -7658,7 +7658,7 @@
         <v>370</v>
       </c>
       <c r="G90" t="n">
-        <v>2095.69676473106</v>
+        <v>1885.90620715994</v>
       </c>
       <c r="H90" t="n">
         <v>49000</v>
@@ -7743,7 +7743,7 @@
         <v>370</v>
       </c>
       <c r="G91" t="n">
-        <v>2095.69676473106</v>
+        <v>1885.90620715994</v>
       </c>
       <c r="H91" t="n">
         <v>49000</v>
@@ -7828,7 +7828,7 @@
         <v>370</v>
       </c>
       <c r="G92" t="n">
-        <v>2095.69676473106</v>
+        <v>1885.90620715994</v>
       </c>
       <c r="H92" t="n">
         <v>49000</v>
@@ -7913,7 +7913,7 @@
         <v>370</v>
       </c>
       <c r="G93" t="n">
-        <v>2095.69676473106</v>
+        <v>1885.90620715994</v>
       </c>
       <c r="H93" t="n">
         <v>49000</v>
@@ -7998,7 +7998,7 @@
         <v>0.03346</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0578491818166762</v>
+        <v>0.0578616257086667</v>
       </c>
       <c r="H94" t="n">
         <v>0.508041035176414</v>
@@ -8079,7 +8079,7 @@
         <v>0.03346</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0578491818166762</v>
+        <v>0.0578616257086667</v>
       </c>
       <c r="H95" t="n">
         <v>0.508041035176414</v>
@@ -8160,7 +8160,7 @@
         <v>0.6105</v>
       </c>
       <c r="G96" t="n">
-        <v>0.534686505239878</v>
+        <v>0.534443511343945</v>
       </c>
       <c r="H96" t="n">
         <v>1.19</v>
@@ -8171,7 +8171,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.1165</v>
+        <v>0.11389</v>
       </c>
       <c r="M96" t="n">
         <v>0.88196</v>
@@ -8241,7 +8241,7 @@
         <v>0.6105</v>
       </c>
       <c r="G97" t="n">
-        <v>0.534686505239878</v>
+        <v>0.534443511343945</v>
       </c>
       <c r="H97" t="n">
         <v>1.19</v>
@@ -8252,7 +8252,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.1165</v>
+        <v>0.11389</v>
       </c>
       <c r="M97" t="n">
         <v>0.88196</v>
@@ -8318,7 +8318,7 @@
         <v>0.7095</v>
       </c>
       <c r="G98" t="n">
-        <v>0.638200619831603</v>
+        <v>0.638254349512572</v>
       </c>
       <c r="H98" t="n">
         <v>1.28</v>
@@ -8395,7 +8395,7 @@
         <v>0.7095</v>
       </c>
       <c r="G99" t="n">
-        <v>0.638200619831603</v>
+        <v>0.638254349512572</v>
       </c>
       <c r="H99" t="n">
         <v>1.28</v>
@@ -9027,7 +9027,7 @@
         <v>398.5</v>
       </c>
       <c r="G107" t="n">
-        <v>2103.33469576554</v>
+        <v>1893.54413819442</v>
       </c>
       <c r="H107" t="n">
         <v>49000</v>
@@ -9112,7 +9112,7 @@
         <v>398.5</v>
       </c>
       <c r="G108" t="n">
-        <v>2103.33469576554</v>
+        <v>1893.54413819442</v>
       </c>
       <c r="H108" t="n">
         <v>49000</v>
@@ -9197,7 +9197,7 @@
         <v>398.5</v>
       </c>
       <c r="G109" t="n">
-        <v>2103.33469576554</v>
+        <v>1893.54413819442</v>
       </c>
       <c r="H109" t="n">
         <v>49000</v>
@@ -9282,7 +9282,7 @@
         <v>398.5</v>
       </c>
       <c r="G110" t="n">
-        <v>2103.33469576554</v>
+        <v>1893.54413819442</v>
       </c>
       <c r="H110" t="n">
         <v>49000</v>
@@ -9367,7 +9367,7 @@
         <v>0.03284</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0583000871797683</v>
+        <v>0.0583099860549522</v>
       </c>
       <c r="H111" t="n">
         <v>0.508041035176414</v>
@@ -9448,7 +9448,7 @@
         <v>0.03284</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0583000871797683</v>
+        <v>0.0583099860549522</v>
       </c>
       <c r="H112" t="n">
         <v>0.508041035176414</v>
@@ -9529,7 +9529,7 @@
         <v>0.581</v>
       </c>
       <c r="G113" t="n">
-        <v>0.542208122947769</v>
+        <v>0.54190614929734</v>
       </c>
       <c r="H113" t="n">
         <v>1.19</v>
@@ -9540,7 +9540,7 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>0.1165</v>
+        <v>0.11389</v>
       </c>
       <c r="M113" t="n">
         <v>0.93544</v>
@@ -9610,7 +9610,7 @@
         <v>0.581</v>
       </c>
       <c r="G114" t="n">
-        <v>0.542208122947769</v>
+        <v>0.54190614929734</v>
       </c>
       <c r="H114" t="n">
         <v>1.19</v>
@@ -9621,7 +9621,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
-        <v>0.1165</v>
+        <v>0.11389</v>
       </c>
       <c r="M114" t="n">
         <v>0.93544</v>
@@ -9687,7 +9687,7 @@
         <v>0.697</v>
       </c>
       <c r="G115" t="n">
-        <v>0.637269585348844</v>
+        <v>0.637323315029814</v>
       </c>
       <c r="H115" t="n">
         <v>1.379</v>
@@ -9764,7 +9764,7 @@
         <v>0.697</v>
       </c>
       <c r="G116" t="n">
-        <v>0.637269585348844</v>
+        <v>0.637323315029814</v>
       </c>
       <c r="H116" t="n">
         <v>1.379</v>
@@ -10123,6 +10123,1375 @@
         </is>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.18530303030303</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.4885</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.4772</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P121" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.0222413793103448</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.03958</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P122" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.0222413793103448</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.03958</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P123" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1656.20529461638</v>
+      </c>
+      <c r="H124" t="n">
+        <v>49000</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3768</v>
+      </c>
+      <c r="J124" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K124" t="n">
+        <v>68.9655172413793</v>
+      </c>
+      <c r="L124" t="n">
+        <v>556</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1464</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2586</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P124" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1656.20529461638</v>
+      </c>
+      <c r="H125" t="n">
+        <v>49000</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3768</v>
+      </c>
+      <c r="J125" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K125" t="n">
+        <v>68.9655172413793</v>
+      </c>
+      <c r="L125" t="n">
+        <v>556</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1464</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2586</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P125" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1656.20529461638</v>
+      </c>
+      <c r="H126" t="n">
+        <v>49000</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3768</v>
+      </c>
+      <c r="J126" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K126" t="n">
+        <v>68.9655172413793</v>
+      </c>
+      <c r="L126" t="n">
+        <v>556</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1464</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2586</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P126" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1656.20529461638</v>
+      </c>
+      <c r="H127" t="n">
+        <v>49000</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3768</v>
+      </c>
+      <c r="J127" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K127" t="n">
+        <v>68.9655172413793</v>
+      </c>
+      <c r="L127" t="n">
+        <v>556</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1464</v>
+      </c>
+      <c r="N127" t="n">
+        <v>2586</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P127" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0.02355</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.0606936875191013</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.508041035176414</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.25202</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>0.00758</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.09322</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.17678</v>
+      </c>
+      <c r="O128" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P128" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0.02355</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.0606936875191013</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.508041035176414</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.25202</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>0.00758</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.09322</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.17678</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P129" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0.5335</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.510992356193892</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>0.1115</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.92284</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1.01356</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P130" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>0.5335</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.510992356193892</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>0.1115</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.92284</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1.01356</v>
+      </c>
+      <c r="O131" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P131" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>0.6565</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.60615090123671</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1.379</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.2218</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1.06628</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1.14716</v>
+      </c>
+      <c r="O132" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P132" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0.6565</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.60615090123671</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1.379</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1.2218</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1.06628</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1.14716</v>
+      </c>
+      <c r="O133" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P133" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.853448275862069</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.684</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1.2948</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="O134" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P134" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.853448275862069</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1.684</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1.2948</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="O135" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P135" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.118327586206897</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>0.0505</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.18356</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.37012</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P136" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Oroua at Mangawhata</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.118327586206897</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>0.0505</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.18356</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.37012</v>
+      </c>
+      <c r="O137" t="n">
+        <v>1806649.9</v>
+      </c>
+      <c r="P137" t="n">
+        <v>5525867</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OrouaatMangawhata_44ac812c5f.xlsx
+++ b/state_results/Rivers/OrouaatMangawhata_44ac812c5f.xlsx
@@ -3551,10 +3551,10 @@
         <v>390</v>
       </c>
       <c r="G39" t="n">
-        <v>1354.50933358794</v>
+        <v>1595.83874601967</v>
       </c>
       <c r="H39" t="n">
-        <v>11633.5600152764</v>
+        <v>26113.3247611804</v>
       </c>
       <c r="I39" t="n">
         <v>9639</v>
@@ -3636,10 +3636,10 @@
         <v>390</v>
       </c>
       <c r="G40" t="n">
-        <v>1354.50933358794</v>
+        <v>1595.83874601967</v>
       </c>
       <c r="H40" t="n">
-        <v>11633.5600152764</v>
+        <v>26113.3247611804</v>
       </c>
       <c r="I40" t="n">
         <v>9639</v>
@@ -3721,10 +3721,10 @@
         <v>390</v>
       </c>
       <c r="G41" t="n">
-        <v>1354.50933358794</v>
+        <v>1595.83874601967</v>
       </c>
       <c r="H41" t="n">
-        <v>11633.5600152764</v>
+        <v>26113.3247611804</v>
       </c>
       <c r="I41" t="n">
         <v>9639</v>
@@ -3806,10 +3806,10 @@
         <v>390</v>
       </c>
       <c r="G42" t="n">
-        <v>1354.50933358794</v>
+        <v>1595.83874601967</v>
       </c>
       <c r="H42" t="n">
-        <v>11633.5600152764</v>
+        <v>26113.3247611804</v>
       </c>
       <c r="I42" t="n">
         <v>9639</v>
@@ -4920,7 +4920,7 @@
         <v>370</v>
       </c>
       <c r="G56" t="n">
-        <v>1844.40933358794</v>
+        <v>2085.73874601967</v>
       </c>
       <c r="H56" t="n">
         <v>49000</v>
@@ -5005,7 +5005,7 @@
         <v>370</v>
       </c>
       <c r="G57" t="n">
-        <v>1844.40933358794</v>
+        <v>2085.73874601967</v>
       </c>
       <c r="H57" t="n">
         <v>49000</v>
@@ -5090,7 +5090,7 @@
         <v>370</v>
       </c>
       <c r="G58" t="n">
-        <v>1844.40933358794</v>
+        <v>2085.73874601967</v>
       </c>
       <c r="H58" t="n">
         <v>49000</v>
@@ -5175,7 +5175,7 @@
         <v>370</v>
       </c>
       <c r="G59" t="n">
-        <v>1844.40933358794</v>
+        <v>2085.73874601967</v>
       </c>
       <c r="H59" t="n">
         <v>49000</v>
@@ -6289,7 +6289,7 @@
         <v>350</v>
       </c>
       <c r="G73" t="n">
-        <v>1717.19593246231</v>
+        <v>1962.61567391831</v>
       </c>
       <c r="H73" t="n">
         <v>49000</v>
@@ -6374,7 +6374,7 @@
         <v>350</v>
       </c>
       <c r="G74" t="n">
-        <v>1717.19593246231</v>
+        <v>1962.61567391831</v>
       </c>
       <c r="H74" t="n">
         <v>49000</v>
@@ -6459,7 +6459,7 @@
         <v>350</v>
       </c>
       <c r="G75" t="n">
-        <v>1717.19593246231</v>
+        <v>1962.61567391831</v>
       </c>
       <c r="H75" t="n">
         <v>49000</v>
@@ -6544,7 +6544,7 @@
         <v>350</v>
       </c>
       <c r="G76" t="n">
-        <v>1717.19593246231</v>
+        <v>1962.61567391831</v>
       </c>
       <c r="H76" t="n">
         <v>49000</v>
@@ -7658,7 +7658,7 @@
         <v>370</v>
       </c>
       <c r="G90" t="n">
-        <v>1885.90620715994</v>
+        <v>2135.55732346863</v>
       </c>
       <c r="H90" t="n">
         <v>49000</v>
@@ -7743,7 +7743,7 @@
         <v>370</v>
       </c>
       <c r="G91" t="n">
-        <v>1885.90620715994</v>
+        <v>2135.55732346863</v>
       </c>
       <c r="H91" t="n">
         <v>49000</v>
@@ -7828,7 +7828,7 @@
         <v>370</v>
       </c>
       <c r="G92" t="n">
-        <v>1885.90620715994</v>
+        <v>2135.55732346863</v>
       </c>
       <c r="H92" t="n">
         <v>49000</v>
@@ -7913,7 +7913,7 @@
         <v>370</v>
       </c>
       <c r="G93" t="n">
-        <v>1885.90620715994</v>
+        <v>2135.55732346863</v>
       </c>
       <c r="H93" t="n">
         <v>49000</v>
@@ -9027,7 +9027,7 @@
         <v>398.5</v>
       </c>
       <c r="G107" t="n">
-        <v>1893.54413819442</v>
+        <v>2143.19525450311</v>
       </c>
       <c r="H107" t="n">
         <v>49000</v>
@@ -9112,7 +9112,7 @@
         <v>398.5</v>
       </c>
       <c r="G108" t="n">
-        <v>1893.54413819442</v>
+        <v>2143.19525450311</v>
       </c>
       <c r="H108" t="n">
         <v>49000</v>
@@ -9197,7 +9197,7 @@
         <v>398.5</v>
       </c>
       <c r="G109" t="n">
-        <v>1893.54413819442</v>
+        <v>2143.19525450311</v>
       </c>
       <c r="H109" t="n">
         <v>49000</v>
@@ -9282,7 +9282,7 @@
         <v>398.5</v>
       </c>
       <c r="G110" t="n">
-        <v>1893.54413819442</v>
+        <v>2143.19525450311</v>
       </c>
       <c r="H110" t="n">
         <v>49000</v>

--- a/state_results/Rivers/OrouaatMangawhata_44ac812c5f.xlsx
+++ b/state_results/Rivers/OrouaatMangawhata_44ac812c5f.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="66">
   <si>
     <t>site name</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U137"/>
+  <dimension ref="A1:U154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,7 +654,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>0.875</v>
@@ -666,7 +669,7 @@
         <v>2.94</v>
       </c>
       <c r="L2">
-        <v>1.6</v>
+        <v>1.275</v>
       </c>
       <c r="M2">
         <v>2.0104</v>
@@ -681,19 +684,19 @@
         <v>5525867</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -710,7 +713,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>0.013</v>
@@ -725,7 +728,7 @@
         <v>0.0623</v>
       </c>
       <c r="L3">
-        <v>0.0115</v>
+        <v>0.012</v>
       </c>
       <c r="M3">
         <v>0.02782</v>
@@ -740,19 +743,19 @@
         <v>5525867</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -769,7 +772,7 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4">
         <v>0.013</v>
@@ -784,7 +787,7 @@
         <v>0.0623</v>
       </c>
       <c r="L4">
-        <v>0.0115</v>
+        <v>0.012</v>
       </c>
       <c r="M4">
         <v>0.02782</v>
@@ -799,19 +802,19 @@
         <v>5525867</v>
       </c>
       <c r="Q4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -828,7 +831,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>354</v>
@@ -849,7 +852,7 @@
         <v>66.1016949152542</v>
       </c>
       <c r="L5">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="M5">
         <v>1147</v>
@@ -864,19 +867,19 @@
         <v>5525867</v>
       </c>
       <c r="Q5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -893,7 +896,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6">
         <v>354</v>
@@ -914,7 +917,7 @@
         <v>66.1016949152542</v>
       </c>
       <c r="L6">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="M6">
         <v>1147</v>
@@ -929,19 +932,19 @@
         <v>5525867</v>
       </c>
       <c r="Q6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -958,7 +961,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7">
         <v>354</v>
@@ -979,7 +982,7 @@
         <v>66.1016949152542</v>
       </c>
       <c r="L7">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="M7">
         <v>1147</v>
@@ -994,19 +997,19 @@
         <v>5525867</v>
       </c>
       <c r="Q7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1023,7 +1026,7 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>354</v>
@@ -1044,7 +1047,7 @@
         <v>66.1016949152542</v>
       </c>
       <c r="L8">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="M8">
         <v>1147</v>
@@ -1059,19 +1062,19 @@
         <v>5525867</v>
       </c>
       <c r="Q8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1088,13 +1091,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>0.0126</v>
       </c>
       <c r="G9">
-        <v>0.0364278880542198</v>
+        <v>0.0364266057701853</v>
       </c>
       <c r="H9">
         <v>0.284281342447847</v>
@@ -1103,7 +1106,7 @@
         <v>0.15723</v>
       </c>
       <c r="L9">
-        <v>0.00295</v>
+        <v>0.00292</v>
       </c>
       <c r="M9">
         <v>0.06534</v>
@@ -1118,19 +1121,19 @@
         <v>5525867</v>
       </c>
       <c r="Q9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1147,13 +1150,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>0.0126</v>
       </c>
       <c r="G10">
-        <v>0.0364278880542198</v>
+        <v>0.0364266057701853</v>
       </c>
       <c r="H10">
         <v>0.284281342447847</v>
@@ -1162,7 +1165,7 @@
         <v>0.15723</v>
       </c>
       <c r="L10">
-        <v>0.00295</v>
+        <v>0.00292</v>
       </c>
       <c r="M10">
         <v>0.06534</v>
@@ -1177,19 +1180,19 @@
         <v>5525867</v>
       </c>
       <c r="Q10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1206,7 +1209,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>0.5492</v>
@@ -1221,7 +1224,7 @@
         <v>1.24374</v>
       </c>
       <c r="L11">
-        <v>0.476</v>
+        <v>0.493</v>
       </c>
       <c r="M11">
         <v>0.98488</v>
@@ -1236,19 +1239,19 @@
         <v>5525867</v>
       </c>
       <c r="Q11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1265,7 +1268,7 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12">
         <v>0.5492</v>
@@ -1280,7 +1283,7 @@
         <v>1.24374</v>
       </c>
       <c r="L12">
-        <v>0.476</v>
+        <v>0.493</v>
       </c>
       <c r="M12">
         <v>0.98488</v>
@@ -1295,19 +1298,19 @@
         <v>5525867</v>
       </c>
       <c r="Q12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1321,7 +1324,7 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13">
         <v>0.625</v>
@@ -1336,7 +1339,7 @@
         <v>1.34107</v>
       </c>
       <c r="L13">
-        <v>0.5128</v>
+        <v>0.5861</v>
       </c>
       <c r="M13">
         <v>1.05367</v>
@@ -1351,19 +1354,19 @@
         <v>5525867</v>
       </c>
       <c r="Q13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1377,7 +1380,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14">
         <v>0.625</v>
@@ -1392,7 +1395,7 @@
         <v>1.34107</v>
       </c>
       <c r="L14">
-        <v>0.5128</v>
+        <v>0.5861</v>
       </c>
       <c r="M14">
         <v>1.05367</v>
@@ -1407,19 +1410,19 @@
         <v>5525867</v>
       </c>
       <c r="Q14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1433,7 +1436,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15">
         <v>0.97</v>
@@ -1448,7 +1451,7 @@
         <v>1.98085</v>
       </c>
       <c r="L15">
-        <v>0.9155</v>
+        <v>0.9325</v>
       </c>
       <c r="M15">
         <v>1.457</v>
@@ -1463,19 +1466,19 @@
         <v>5525867</v>
       </c>
       <c r="Q15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1489,7 +1492,7 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16">
         <v>0.97</v>
@@ -1504,7 +1507,7 @@
         <v>1.98085</v>
       </c>
       <c r="L16">
-        <v>0.9155</v>
+        <v>0.9325</v>
       </c>
       <c r="M16">
         <v>1.457</v>
@@ -1519,19 +1522,19 @@
         <v>5525867</v>
       </c>
       <c r="Q16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1545,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>0.048</v>
@@ -1560,7 +1563,7 @@
         <v>0.2876</v>
       </c>
       <c r="L17">
-        <v>0.041</v>
+        <v>0.0435</v>
       </c>
       <c r="M17">
         <v>0.09787999999999999</v>
@@ -1575,19 +1578,19 @@
         <v>5525867</v>
       </c>
       <c r="Q17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1601,7 +1604,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18">
         <v>0.048</v>
@@ -1616,7 +1619,7 @@
         <v>0.2876</v>
       </c>
       <c r="L18">
-        <v>0.041</v>
+        <v>0.0435</v>
       </c>
       <c r="M18">
         <v>0.09787999999999999</v>
@@ -1631,19 +1634,19 @@
         <v>5525867</v>
       </c>
       <c r="Q18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1660,7 +1663,7 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <v>0.42</v>
@@ -1675,7 +1678,7 @@
         <v>2.915</v>
       </c>
       <c r="L19">
-        <v>1.575</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>1.9306</v>
@@ -1690,19 +1693,19 @@
         <v>5525867</v>
       </c>
       <c r="Q19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1719,7 +1722,7 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>0.013</v>
@@ -1734,7 +1737,7 @@
         <v>0.062</v>
       </c>
       <c r="L20">
-        <v>0.0115</v>
+        <v>0.012</v>
       </c>
       <c r="M20">
         <v>0.0326</v>
@@ -1749,19 +1752,19 @@
         <v>5525867</v>
       </c>
       <c r="Q20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1778,7 +1781,7 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21">
         <v>0.013</v>
@@ -1793,7 +1796,7 @@
         <v>0.062</v>
       </c>
       <c r="L21">
-        <v>0.0115</v>
+        <v>0.012</v>
       </c>
       <c r="M21">
         <v>0.0326</v>
@@ -1808,19 +1811,19 @@
         <v>5525867</v>
       </c>
       <c r="Q21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1837,7 +1840,7 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22">
         <v>357</v>
@@ -1858,7 +1861,7 @@
         <v>63.3333333333333</v>
       </c>
       <c r="L22">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="M22">
         <v>1183.7</v>
@@ -1873,19 +1876,19 @@
         <v>5525867</v>
       </c>
       <c r="Q22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1902,7 +1905,7 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23">
         <v>357</v>
@@ -1923,7 +1926,7 @@
         <v>63.3333333333333</v>
       </c>
       <c r="L23">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="M23">
         <v>1183.7</v>
@@ -1938,19 +1941,19 @@
         <v>5525867</v>
       </c>
       <c r="Q23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1967,7 +1970,7 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24">
         <v>357</v>
@@ -1988,7 +1991,7 @@
         <v>63.3333333333333</v>
       </c>
       <c r="L24">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="M24">
         <v>1183.7</v>
@@ -2003,19 +2006,19 @@
         <v>5525867</v>
       </c>
       <c r="Q24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2032,7 +2035,7 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25">
         <v>357</v>
@@ -2053,7 +2056,7 @@
         <v>63.3333333333333</v>
       </c>
       <c r="L25">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="M25">
         <v>1183.7</v>
@@ -2068,19 +2071,19 @@
         <v>5525867</v>
       </c>
       <c r="Q25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2097,13 +2100,13 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26">
         <v>0.01247</v>
       </c>
       <c r="G26">
-        <v>0.0236776937096546</v>
+        <v>0.0236758648540255</v>
       </c>
       <c r="H26">
         <v>0.0941994614097868</v>
@@ -2112,7 +2115,7 @@
         <v>0.07488</v>
       </c>
       <c r="L26">
-        <v>0.00295</v>
+        <v>0.00292</v>
       </c>
       <c r="M26">
         <v>0.05244</v>
@@ -2127,19 +2130,19 @@
         <v>5525867</v>
       </c>
       <c r="Q26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2156,13 +2159,13 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27">
         <v>0.01247</v>
       </c>
       <c r="G27">
-        <v>0.0236776937096546</v>
+        <v>0.0236758648540255</v>
       </c>
       <c r="H27">
         <v>0.0941994614097868</v>
@@ -2171,7 +2174,7 @@
         <v>0.07488</v>
       </c>
       <c r="L27">
-        <v>0.00295</v>
+        <v>0.00292</v>
       </c>
       <c r="M27">
         <v>0.05244</v>
@@ -2186,19 +2189,19 @@
         <v>5525867</v>
       </c>
       <c r="Q27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2215,7 +2218,7 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28">
         <v>0.60975</v>
@@ -2230,7 +2233,7 @@
         <v>1.2434</v>
       </c>
       <c r="L28">
-        <v>0.6152</v>
+        <v>0.5576</v>
       </c>
       <c r="M28">
         <v>0.9802</v>
@@ -2245,19 +2248,19 @@
         <v>5525867</v>
       </c>
       <c r="Q28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2274,7 +2277,7 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F29">
         <v>0.60975</v>
@@ -2289,7 +2292,7 @@
         <v>1.2434</v>
       </c>
       <c r="L29">
-        <v>0.6152</v>
+        <v>0.5576</v>
       </c>
       <c r="M29">
         <v>0.9802</v>
@@ -2304,19 +2307,19 @@
         <v>5525867</v>
       </c>
       <c r="Q29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2330,7 +2333,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30">
         <v>0.69285</v>
@@ -2345,7 +2348,7 @@
         <v>1.3387</v>
       </c>
       <c r="L30">
-        <v>0.70885</v>
+        <v>0.665</v>
       </c>
       <c r="M30">
         <v>1.079</v>
@@ -2360,19 +2363,19 @@
         <v>5525867</v>
       </c>
       <c r="Q30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2386,7 +2389,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F31">
         <v>0.69285</v>
@@ -2401,7 +2404,7 @@
         <v>1.3387</v>
       </c>
       <c r="L31">
-        <v>0.70885</v>
+        <v>0.665</v>
       </c>
       <c r="M31">
         <v>1.079</v>
@@ -2416,19 +2419,19 @@
         <v>5525867</v>
       </c>
       <c r="Q31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2442,7 +2445,7 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F32">
         <v>1.01</v>
@@ -2457,7 +2460,7 @@
         <v>1.903</v>
       </c>
       <c r="L32">
-        <v>1.0605</v>
+        <v>1.0375</v>
       </c>
       <c r="M32">
         <v>1.375</v>
@@ -2472,19 +2475,19 @@
         <v>5525867</v>
       </c>
       <c r="Q32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2498,7 +2501,7 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33">
         <v>1.01</v>
@@ -2513,7 +2516,7 @@
         <v>1.903</v>
       </c>
       <c r="L33">
-        <v>1.0605</v>
+        <v>1.0375</v>
       </c>
       <c r="M33">
         <v>1.375</v>
@@ -2528,19 +2531,19 @@
         <v>5525867</v>
       </c>
       <c r="Q33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2554,7 +2557,7 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F34">
         <v>0.048</v>
@@ -2569,7 +2572,7 @@
         <v>0.211</v>
       </c>
       <c r="L34">
-        <v>0.038</v>
+        <v>0.0395</v>
       </c>
       <c r="M34">
         <v>0.1033</v>
@@ -2584,19 +2587,19 @@
         <v>5525867</v>
       </c>
       <c r="Q34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2610,7 +2613,7 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F35">
         <v>0.048</v>
@@ -2625,7 +2628,7 @@
         <v>0.211</v>
       </c>
       <c r="L35">
-        <v>0.038</v>
+        <v>0.0395</v>
       </c>
       <c r="M35">
         <v>0.1033</v>
@@ -2640,19 +2643,19 @@
         <v>5525867</v>
       </c>
       <c r="Q35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2669,7 +2672,7 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F36">
         <v>0.28</v>
@@ -2684,7 +2687,7 @@
         <v>2.242</v>
       </c>
       <c r="L36">
-        <v>1.085</v>
+        <v>0.8</v>
       </c>
       <c r="M36">
         <v>1.1156</v>
@@ -2699,19 +2702,19 @@
         <v>5525867</v>
       </c>
       <c r="Q36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2728,7 +2731,7 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F37">
         <v>0.014</v>
@@ -2743,7 +2746,7 @@
         <v>0.066</v>
       </c>
       <c r="L37">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="M37">
         <v>0.042</v>
@@ -2758,19 +2761,19 @@
         <v>5525867</v>
       </c>
       <c r="Q37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2787,7 +2790,7 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F38">
         <v>0.014</v>
@@ -2802,7 +2805,7 @@
         <v>0.066</v>
       </c>
       <c r="L38">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="M38">
         <v>0.042</v>
@@ -2817,19 +2820,19 @@
         <v>5525867</v>
       </c>
       <c r="Q38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2846,16 +2849,16 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F39">
         <v>390</v>
       </c>
       <c r="G39">
-        <v>1424.09369953176</v>
+        <v>1325.35632032945</v>
       </c>
       <c r="H39">
-        <v>15808.6219719054</v>
+        <v>9884.379219767001</v>
       </c>
       <c r="I39">
         <v>9639</v>
@@ -2867,7 +2870,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L39">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="M39">
         <v>1944.1</v>
@@ -2882,19 +2885,19 @@
         <v>5525867</v>
       </c>
       <c r="Q39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2911,16 +2914,16 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F40">
         <v>390</v>
       </c>
       <c r="G40">
-        <v>1424.09369953176</v>
+        <v>1325.35632032945</v>
       </c>
       <c r="H40">
-        <v>15808.6219719054</v>
+        <v>9884.379219767001</v>
       </c>
       <c r="I40">
         <v>9639</v>
@@ -2932,7 +2935,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L40">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="M40">
         <v>1944.1</v>
@@ -2947,19 +2950,19 @@
         <v>5525867</v>
       </c>
       <c r="Q40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2976,16 +2979,16 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F41">
         <v>390</v>
       </c>
       <c r="G41">
-        <v>1424.09369953176</v>
+        <v>1325.35632032945</v>
       </c>
       <c r="H41">
-        <v>15808.6219719054</v>
+        <v>9884.379219767001</v>
       </c>
       <c r="I41">
         <v>9639</v>
@@ -2997,7 +3000,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L41">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="M41">
         <v>1944.1</v>
@@ -3012,19 +3015,19 @@
         <v>5525867</v>
       </c>
       <c r="Q41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3041,16 +3044,16 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F42">
         <v>390</v>
       </c>
       <c r="G42">
-        <v>1424.09369953176</v>
+        <v>1325.35632032945</v>
       </c>
       <c r="H42">
-        <v>15808.6219719054</v>
+        <v>9884.379219767001</v>
       </c>
       <c r="I42">
         <v>9639</v>
@@ -3062,7 +3065,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L42">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="M42">
         <v>1944.1</v>
@@ -3077,19 +3080,19 @@
         <v>5525867</v>
       </c>
       <c r="Q42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3106,13 +3109,13 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43">
         <v>0.02071</v>
       </c>
       <c r="G43">
-        <v>0.0285840987201545</v>
+        <v>0.0285822383325318</v>
       </c>
       <c r="H43">
         <v>0.127055928437573</v>
@@ -3121,7 +3124,7 @@
         <v>0.08935999999999999</v>
       </c>
       <c r="L43">
-        <v>0.01743</v>
+        <v>0.02071</v>
       </c>
       <c r="M43">
         <v>0.05308</v>
@@ -3136,19 +3139,19 @@
         <v>5525867</v>
       </c>
       <c r="Q43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3165,13 +3168,13 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44">
         <v>0.02071</v>
       </c>
       <c r="G44">
-        <v>0.0285840987201545</v>
+        <v>0.0285822383325318</v>
       </c>
       <c r="H44">
         <v>0.127055928437573</v>
@@ -3180,7 +3183,7 @@
         <v>0.08935999999999999</v>
       </c>
       <c r="L44">
-        <v>0.01743</v>
+        <v>0.02071</v>
       </c>
       <c r="M44">
         <v>0.05308</v>
@@ -3195,19 +3198,19 @@
         <v>5525867</v>
       </c>
       <c r="Q44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3224,7 +3227,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F45">
         <v>0.6535</v>
@@ -3239,7 +3242,7 @@
         <v>1.2434</v>
       </c>
       <c r="L45">
-        <v>0.6879999999999999</v>
+        <v>0.6625</v>
       </c>
       <c r="M45">
         <v>0.9802</v>
@@ -3254,19 +3257,19 @@
         <v>5525867</v>
       </c>
       <c r="Q45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3283,7 +3286,7 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F46">
         <v>0.6535</v>
@@ -3298,7 +3301,7 @@
         <v>1.2434</v>
       </c>
       <c r="L46">
-        <v>0.6879999999999999</v>
+        <v>0.6625</v>
       </c>
       <c r="M46">
         <v>0.9802</v>
@@ -3313,19 +3316,19 @@
         <v>5525867</v>
       </c>
       <c r="Q46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3339,7 +3342,7 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47">
         <v>0.795</v>
@@ -3354,7 +3357,7 @@
         <v>1.3387</v>
       </c>
       <c r="L47">
-        <v>0.8125</v>
+        <v>0.805</v>
       </c>
       <c r="M47">
         <v>1.103</v>
@@ -3369,19 +3372,19 @@
         <v>5525867</v>
       </c>
       <c r="Q47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3395,7 +3398,7 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F48">
         <v>0.795</v>
@@ -3410,7 +3413,7 @@
         <v>1.3387</v>
       </c>
       <c r="L48">
-        <v>0.8125</v>
+        <v>0.805</v>
       </c>
       <c r="M48">
         <v>1.103</v>
@@ -3425,19 +3428,19 @@
         <v>5525867</v>
       </c>
       <c r="Q48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3451,7 +3454,7 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F49">
         <v>1.075</v>
@@ -3481,19 +3484,19 @@
         <v>5525867</v>
       </c>
       <c r="Q49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3507,7 +3510,7 @@
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F50">
         <v>1.075</v>
@@ -3537,19 +3540,19 @@
         <v>5525867</v>
       </c>
       <c r="Q50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3563,7 +3566,7 @@
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F51">
         <v>0.062</v>
@@ -3578,7 +3581,7 @@
         <v>0.4435</v>
       </c>
       <c r="L51">
-        <v>0.035</v>
+        <v>0.042</v>
       </c>
       <c r="M51">
         <v>0.1368</v>
@@ -3593,19 +3596,19 @@
         <v>5525867</v>
       </c>
       <c r="Q51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3619,7 +3622,7 @@
         <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F52">
         <v>0.062</v>
@@ -3634,7 +3637,7 @@
         <v>0.4435</v>
       </c>
       <c r="L52">
-        <v>0.035</v>
+        <v>0.042</v>
       </c>
       <c r="M52">
         <v>0.1368</v>
@@ -3649,19 +3652,19 @@
         <v>5525867</v>
       </c>
       <c r="Q52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3678,7 +3681,7 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F53">
         <v>0.2425</v>
@@ -3693,7 +3696,7 @@
         <v>2.242</v>
       </c>
       <c r="L53">
-        <v>0.8</v>
+        <v>0.391</v>
       </c>
       <c r="M53">
         <v>1.0836</v>
@@ -3708,19 +3711,19 @@
         <v>5525867</v>
       </c>
       <c r="Q53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3737,7 +3740,7 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F54">
         <v>0.016</v>
@@ -3752,7 +3755,7 @@
         <v>0.063</v>
       </c>
       <c r="L54">
-        <v>0.014</v>
+        <v>0.0155</v>
       </c>
       <c r="M54">
         <v>0.0406</v>
@@ -3767,19 +3770,19 @@
         <v>5525867</v>
       </c>
       <c r="Q54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3796,7 +3799,7 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F55">
         <v>0.016</v>
@@ -3811,7 +3814,7 @@
         <v>0.063</v>
       </c>
       <c r="L55">
-        <v>0.014</v>
+        <v>0.0155</v>
       </c>
       <c r="M55">
         <v>0.0406</v>
@@ -3826,19 +3829,19 @@
         <v>5525867</v>
       </c>
       <c r="Q55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3855,13 +3858,13 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F56">
         <v>370</v>
       </c>
       <c r="G56">
-        <v>1913.99369953176</v>
+        <v>1815.25632032945</v>
       </c>
       <c r="H56">
         <v>49000</v>
@@ -3876,7 +3879,7 @@
         <v>65</v>
       </c>
       <c r="L56">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="M56">
         <v>1250</v>
@@ -3891,19 +3894,19 @@
         <v>5525867</v>
       </c>
       <c r="Q56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3920,13 +3923,13 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F57">
         <v>370</v>
       </c>
       <c r="G57">
-        <v>1913.99369953176</v>
+        <v>1815.25632032945</v>
       </c>
       <c r="H57">
         <v>49000</v>
@@ -3941,7 +3944,7 @@
         <v>65</v>
       </c>
       <c r="L57">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="M57">
         <v>1250</v>
@@ -3956,19 +3959,19 @@
         <v>5525867</v>
       </c>
       <c r="Q57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3985,13 +3988,13 @@
         <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F58">
         <v>370</v>
       </c>
       <c r="G58">
-        <v>1913.99369953176</v>
+        <v>1815.25632032945</v>
       </c>
       <c r="H58">
         <v>49000</v>
@@ -4006,7 +4009,7 @@
         <v>65</v>
       </c>
       <c r="L58">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="M58">
         <v>1250</v>
@@ -4021,19 +4024,19 @@
         <v>5525867</v>
       </c>
       <c r="Q58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4050,13 +4053,13 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F59">
         <v>370</v>
       </c>
       <c r="G59">
-        <v>1913.99369953176</v>
+        <v>1815.25632032945</v>
       </c>
       <c r="H59">
         <v>49000</v>
@@ -4071,7 +4074,7 @@
         <v>65</v>
       </c>
       <c r="L59">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="M59">
         <v>1250</v>
@@ -4086,19 +4089,19 @@
         <v>5525867</v>
       </c>
       <c r="Q59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4115,13 +4118,13 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F60">
         <v>0.02705</v>
       </c>
       <c r="G60">
-        <v>0.0403080000294403</v>
+        <v>0.0403022201478167</v>
       </c>
       <c r="H60">
         <v>0.25645717923995</v>
@@ -4130,7 +4133,7 @@
         <v>0.12526</v>
       </c>
       <c r="L60">
-        <v>0.01337</v>
+        <v>0.02071</v>
       </c>
       <c r="M60">
         <v>0.06519</v>
@@ -4145,19 +4148,19 @@
         <v>5525867</v>
       </c>
       <c r="Q60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4174,13 +4177,13 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F61">
         <v>0.02705</v>
       </c>
       <c r="G61">
-        <v>0.0403080000294403</v>
+        <v>0.0403022201478167</v>
       </c>
       <c r="H61">
         <v>0.25645717923995</v>
@@ -4189,7 +4192,7 @@
         <v>0.12526</v>
       </c>
       <c r="L61">
-        <v>0.01337</v>
+        <v>0.02071</v>
       </c>
       <c r="M61">
         <v>0.06519</v>
@@ -4204,19 +4207,19 @@
         <v>5525867</v>
       </c>
       <c r="Q61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4233,13 +4236,13 @@
         <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F62">
         <v>0.6535</v>
       </c>
       <c r="G62">
-        <v>0.660680283928732</v>
+        <v>0.659980555268487</v>
       </c>
       <c r="H62">
         <v>1.52</v>
@@ -4248,7 +4251,7 @@
         <v>1.23</v>
       </c>
       <c r="L62">
-        <v>0.525</v>
+        <v>0.602</v>
       </c>
       <c r="M62">
         <v>0.9741</v>
@@ -4263,19 +4266,19 @@
         <v>5525867</v>
       </c>
       <c r="Q62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4292,13 +4295,13 @@
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F63">
         <v>0.6535</v>
       </c>
       <c r="G63">
-        <v>0.660680283928732</v>
+        <v>0.659980555268487</v>
       </c>
       <c r="H63">
         <v>1.52</v>
@@ -4307,7 +4310,7 @@
         <v>1.23</v>
       </c>
       <c r="L63">
-        <v>0.525</v>
+        <v>0.602</v>
       </c>
       <c r="M63">
         <v>0.9741</v>
@@ -4322,19 +4325,19 @@
         <v>5525867</v>
       </c>
       <c r="Q63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4348,13 +4351,13 @@
         <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F64">
         <v>0.8100000000000001</v>
       </c>
       <c r="G64">
-        <v>0.769526420024975</v>
+        <v>0.76936795606872</v>
       </c>
       <c r="H64">
         <v>1.63</v>
@@ -4363,7 +4366,7 @@
         <v>1.3075</v>
       </c>
       <c r="L64">
-        <v>0.645</v>
+        <v>0.795</v>
       </c>
       <c r="M64">
         <v>1.079</v>
@@ -4378,19 +4381,19 @@
         <v>5525867</v>
       </c>
       <c r="Q64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4404,13 +4407,13 @@
         <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F65">
         <v>0.8100000000000001</v>
       </c>
       <c r="G65">
-        <v>0.769526420024975</v>
+        <v>0.76936795606872</v>
       </c>
       <c r="H65">
         <v>1.63</v>
@@ -4419,7 +4422,7 @@
         <v>1.3075</v>
       </c>
       <c r="L65">
-        <v>0.645</v>
+        <v>0.795</v>
       </c>
       <c r="M65">
         <v>1.079</v>
@@ -4434,19 +4437,19 @@
         <v>5525867</v>
       </c>
       <c r="Q65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4460,7 +4463,7 @@
         <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F66">
         <v>1.1</v>
@@ -4490,19 +4493,19 @@
         <v>5525867</v>
       </c>
       <c r="Q66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4516,7 +4519,7 @@
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F67">
         <v>1.1</v>
@@ -4546,19 +4549,19 @@
         <v>5525867</v>
       </c>
       <c r="Q67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4572,7 +4575,7 @@
         <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F68">
         <v>0.065</v>
@@ -4587,7 +4590,7 @@
         <v>0.606</v>
       </c>
       <c r="L68">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
       <c r="M68">
         <v>0.1736</v>
@@ -4602,19 +4605,19 @@
         <v>5525867</v>
       </c>
       <c r="Q68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4628,7 +4631,7 @@
         <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F69">
         <v>0.065</v>
@@ -4643,7 +4646,7 @@
         <v>0.606</v>
       </c>
       <c r="L69">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
       <c r="M69">
         <v>0.1736</v>
@@ -4658,19 +4661,19 @@
         <v>5525867</v>
       </c>
       <c r="Q69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4687,7 +4690,7 @@
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F70">
         <v>0.19</v>
@@ -4702,7 +4705,7 @@
         <v>1.675</v>
       </c>
       <c r="L70">
-        <v>0.391</v>
+        <v>0.39</v>
       </c>
       <c r="M70">
         <v>0.4685</v>
@@ -4717,19 +4720,19 @@
         <v>5525867</v>
       </c>
       <c r="Q70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4746,7 +4749,7 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F71">
         <v>0.016</v>
@@ -4761,7 +4764,7 @@
         <v>0.0634</v>
       </c>
       <c r="L71">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="M71">
         <v>0.037</v>
@@ -4776,19 +4779,19 @@
         <v>5525867</v>
       </c>
       <c r="Q71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4805,7 +4808,7 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F72">
         <v>0.016</v>
@@ -4820,7 +4823,7 @@
         <v>0.0634</v>
       </c>
       <c r="L72">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="M72">
         <v>0.037</v>
@@ -4835,19 +4838,19 @@
         <v>5525867</v>
       </c>
       <c r="Q72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4864,13 +4867,13 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F73">
         <v>350</v>
       </c>
       <c r="G73">
-        <v>1787.95969443908</v>
+        <v>1687.54880033503</v>
       </c>
       <c r="H73">
         <v>49000</v>
@@ -4885,7 +4888,7 @@
         <v>62.7118644067797</v>
       </c>
       <c r="L73">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="M73">
         <v>1547</v>
@@ -4900,19 +4903,19 @@
         <v>5525867</v>
       </c>
       <c r="Q73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4929,13 +4932,13 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F74">
         <v>350</v>
       </c>
       <c r="G74">
-        <v>1787.95969443908</v>
+        <v>1687.54880033503</v>
       </c>
       <c r="H74">
         <v>49000</v>
@@ -4950,7 +4953,7 @@
         <v>62.7118644067797</v>
       </c>
       <c r="L74">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="M74">
         <v>1547</v>
@@ -4965,19 +4968,19 @@
         <v>5525867</v>
       </c>
       <c r="Q74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4994,13 +4997,13 @@
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F75">
         <v>350</v>
       </c>
       <c r="G75">
-        <v>1787.95969443908</v>
+        <v>1687.54880033503</v>
       </c>
       <c r="H75">
         <v>49000</v>
@@ -5015,7 +5018,7 @@
         <v>62.7118644067797</v>
       </c>
       <c r="L75">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="M75">
         <v>1547</v>
@@ -5030,19 +5033,19 @@
         <v>5525867</v>
       </c>
       <c r="Q75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5059,13 +5062,13 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F76">
         <v>350</v>
       </c>
       <c r="G76">
-        <v>1787.95969443908</v>
+        <v>1687.54880033503</v>
       </c>
       <c r="H76">
         <v>49000</v>
@@ -5080,7 +5083,7 @@
         <v>62.7118644067797</v>
       </c>
       <c r="L76">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="M76">
         <v>1547</v>
@@ -5095,19 +5098,19 @@
         <v>5525867</v>
       </c>
       <c r="Q76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5124,13 +5127,13 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F77">
         <v>0.03051</v>
       </c>
       <c r="G77">
-        <v>0.0461581491493698</v>
+        <v>0.0461518799862066</v>
       </c>
       <c r="H77">
         <v>0.25645717923995</v>
@@ -5139,7 +5142,7 @@
         <v>0.13448</v>
       </c>
       <c r="L77">
-        <v>0.01469</v>
+        <v>0.02473</v>
       </c>
       <c r="M77">
         <v>0.08029</v>
@@ -5154,19 +5157,19 @@
         <v>5525867</v>
       </c>
       <c r="Q77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5183,13 +5186,13 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F78">
         <v>0.03051</v>
       </c>
       <c r="G78">
-        <v>0.0461581491493698</v>
+        <v>0.0461518799862066</v>
       </c>
       <c r="H78">
         <v>0.25645717923995</v>
@@ -5198,7 +5201,7 @@
         <v>0.13448</v>
       </c>
       <c r="L78">
-        <v>0.01469</v>
+        <v>0.02473</v>
       </c>
       <c r="M78">
         <v>0.08029</v>
@@ -5213,19 +5216,19 @@
         <v>5525867</v>
       </c>
       <c r="Q78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5242,13 +5245,13 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F79">
         <v>0.643</v>
       </c>
       <c r="G79">
-        <v>0.623552233061927</v>
+        <v>0.621554529497979</v>
       </c>
       <c r="H79">
         <v>1.52</v>
@@ -5257,7 +5260,7 @@
         <v>1.231</v>
       </c>
       <c r="L79">
-        <v>0.378</v>
+        <v>0.48</v>
       </c>
       <c r="M79">
         <v>0.9763500000000001</v>
@@ -5272,19 +5275,19 @@
         <v>5525867</v>
       </c>
       <c r="Q79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5301,13 +5304,13 @@
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F80">
         <v>0.643</v>
       </c>
       <c r="G80">
-        <v>0.623552233061927</v>
+        <v>0.621554529497979</v>
       </c>
       <c r="H80">
         <v>1.52</v>
@@ -5316,7 +5319,7 @@
         <v>1.231</v>
       </c>
       <c r="L80">
-        <v>0.378</v>
+        <v>0.48</v>
       </c>
       <c r="M80">
         <v>0.9763500000000001</v>
@@ -5331,19 +5334,19 @@
         <v>5525867</v>
       </c>
       <c r="Q80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5357,13 +5360,13 @@
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F81">
         <v>0.74</v>
       </c>
       <c r="G81">
-        <v>0.725359071211838</v>
+        <v>0.725197921425817</v>
       </c>
       <c r="H81">
         <v>1.63</v>
@@ -5372,7 +5375,7 @@
         <v>1.30825</v>
       </c>
       <c r="L81">
-        <v>0.4475</v>
+        <v>0.63</v>
       </c>
       <c r="M81">
         <v>1.0841</v>
@@ -5387,19 +5390,19 @@
         <v>5525867</v>
       </c>
       <c r="Q81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5413,13 +5416,13 @@
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F82">
         <v>0.74</v>
       </c>
       <c r="G82">
-        <v>0.725359071211838</v>
+        <v>0.725197921425817</v>
       </c>
       <c r="H82">
         <v>1.63</v>
@@ -5428,7 +5431,7 @@
         <v>1.30825</v>
       </c>
       <c r="L82">
-        <v>0.4475</v>
+        <v>0.63</v>
       </c>
       <c r="M82">
         <v>1.0841</v>
@@ -5443,19 +5446,19 @@
         <v>5525867</v>
       </c>
       <c r="Q82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5469,7 +5472,7 @@
         <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F83">
         <v>1.03</v>
@@ -5484,7 +5487,7 @@
         <v>1.67</v>
       </c>
       <c r="L83">
-        <v>0.8149999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M83">
         <v>1.3694</v>
@@ -5499,19 +5502,19 @@
         <v>5525867</v>
       </c>
       <c r="Q83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5525,7 +5528,7 @@
         <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F84">
         <v>1.03</v>
@@ -5540,7 +5543,7 @@
         <v>1.67</v>
       </c>
       <c r="L84">
-        <v>0.8149999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M84">
         <v>1.3694</v>
@@ -5555,19 +5558,19 @@
         <v>5525867</v>
       </c>
       <c r="Q84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5581,7 +5584,7 @@
         <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F85">
         <v>0.055</v>
@@ -5596,7 +5599,7 @@
         <v>0.5458499999999999</v>
       </c>
       <c r="L85">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="M85">
         <v>0.17782</v>
@@ -5611,19 +5614,19 @@
         <v>5525867</v>
       </c>
       <c r="Q85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U85" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5637,7 +5640,7 @@
         <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F86">
         <v>0.055</v>
@@ -5652,7 +5655,7 @@
         <v>0.5458499999999999</v>
       </c>
       <c r="L86">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="M86">
         <v>0.17782</v>
@@ -5667,19 +5670,19 @@
         <v>5525867</v>
       </c>
       <c r="Q86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5696,7 +5699,7 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F87">
         <v>0.105</v>
@@ -5726,19 +5729,19 @@
         <v>5525867</v>
       </c>
       <c r="Q87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5755,7 +5758,7 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F88">
         <v>0.0165</v>
@@ -5785,19 +5788,19 @@
         <v>5525867</v>
       </c>
       <c r="Q88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5814,7 +5817,7 @@
         <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F89">
         <v>0.0165</v>
@@ -5844,19 +5847,19 @@
         <v>5525867</v>
       </c>
       <c r="Q89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5873,13 +5876,13 @@
         <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F90">
         <v>370</v>
       </c>
       <c r="G90">
-        <v>1957.89003399837</v>
+        <v>1855.74791758219</v>
       </c>
       <c r="H90">
         <v>49000</v>
@@ -5894,7 +5897,7 @@
         <v>68.9655172413793</v>
       </c>
       <c r="L90">
-        <v>535</v>
+        <v>440</v>
       </c>
       <c r="M90">
         <v>2140</v>
@@ -5909,19 +5912,19 @@
         <v>5525867</v>
       </c>
       <c r="Q90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5938,13 +5941,13 @@
         <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F91">
         <v>370</v>
       </c>
       <c r="G91">
-        <v>1957.89003399837</v>
+        <v>1855.74791758219</v>
       </c>
       <c r="H91">
         <v>49000</v>
@@ -5959,7 +5962,7 @@
         <v>68.9655172413793</v>
       </c>
       <c r="L91">
-        <v>535</v>
+        <v>440</v>
       </c>
       <c r="M91">
         <v>2140</v>
@@ -5974,19 +5977,19 @@
         <v>5525867</v>
       </c>
       <c r="Q91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6003,13 +6006,13 @@
         <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F92">
         <v>370</v>
       </c>
       <c r="G92">
-        <v>1957.89003399837</v>
+        <v>1855.74791758219</v>
       </c>
       <c r="H92">
         <v>49000</v>
@@ -6024,7 +6027,7 @@
         <v>68.9655172413793</v>
       </c>
       <c r="L92">
-        <v>535</v>
+        <v>440</v>
       </c>
       <c r="M92">
         <v>2140</v>
@@ -6039,19 +6042,19 @@
         <v>5525867</v>
       </c>
       <c r="Q92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6068,13 +6071,13 @@
         <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F93">
         <v>370</v>
       </c>
       <c r="G93">
-        <v>1957.89003399837</v>
+        <v>1855.74791758219</v>
       </c>
       <c r="H93">
         <v>49000</v>
@@ -6089,7 +6092,7 @@
         <v>68.9655172413793</v>
       </c>
       <c r="L93">
-        <v>535</v>
+        <v>440</v>
       </c>
       <c r="M93">
         <v>2140</v>
@@ -6104,19 +6107,19 @@
         <v>5525867</v>
       </c>
       <c r="Q93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6133,13 +6136,13 @@
         <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F94">
         <v>0.03346</v>
       </c>
       <c r="G94">
-        <v>0.0578616257086667</v>
+        <v>0.0578565545144326</v>
       </c>
       <c r="H94">
         <v>0.508041035176414</v>
@@ -6148,7 +6151,7 @@
         <v>0.24681</v>
       </c>
       <c r="L94">
-        <v>0.009849999999999999</v>
+        <v>0.02028</v>
       </c>
       <c r="M94">
         <v>0.08309</v>
@@ -6163,19 +6166,19 @@
         <v>5525867</v>
       </c>
       <c r="Q94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6192,13 +6195,13 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F95">
         <v>0.03346</v>
       </c>
       <c r="G95">
-        <v>0.0578616257086667</v>
+        <v>0.0578565545144326</v>
       </c>
       <c r="H95">
         <v>0.508041035176414</v>
@@ -6207,7 +6210,7 @@
         <v>0.24681</v>
       </c>
       <c r="L95">
-        <v>0.009849999999999999</v>
+        <v>0.02028</v>
       </c>
       <c r="M95">
         <v>0.08309</v>
@@ -6222,19 +6225,19 @@
         <v>5525867</v>
       </c>
       <c r="Q95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U95" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6251,13 +6254,13 @@
         <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F96">
         <v>0.6105</v>
       </c>
       <c r="G96">
-        <v>0.534443511343945</v>
+        <v>0.531455390864353</v>
       </c>
       <c r="H96">
         <v>1.19</v>
@@ -6266,7 +6269,7 @@
         <v>0.977</v>
       </c>
       <c r="L96">
-        <v>0.11389</v>
+        <v>0.289</v>
       </c>
       <c r="M96">
         <v>0.88196</v>
@@ -6281,19 +6284,19 @@
         <v>5525867</v>
       </c>
       <c r="Q96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U96" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6310,13 +6313,13 @@
         <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F97">
         <v>0.6105</v>
       </c>
       <c r="G97">
-        <v>0.534443511343945</v>
+        <v>0.531455390864353</v>
       </c>
       <c r="H97">
         <v>1.19</v>
@@ -6325,7 +6328,7 @@
         <v>0.977</v>
       </c>
       <c r="L97">
-        <v>0.11389</v>
+        <v>0.289</v>
       </c>
       <c r="M97">
         <v>0.88196</v>
@@ -6340,19 +6343,19 @@
         <v>5525867</v>
       </c>
       <c r="Q97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6366,13 +6369,13 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F98">
         <v>0.7095</v>
       </c>
       <c r="G98">
-        <v>0.638254349512572</v>
+        <v>0.6379895235529069</v>
       </c>
       <c r="H98">
         <v>1.28</v>
@@ -6381,7 +6384,7 @@
         <v>1.1986</v>
       </c>
       <c r="L98">
-        <v>0.1125</v>
+        <v>0.41</v>
       </c>
       <c r="M98">
         <v>1.05088</v>
@@ -6396,19 +6399,19 @@
         <v>5525867</v>
       </c>
       <c r="Q98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U98" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6422,13 +6425,13 @@
         <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F99">
         <v>0.7095</v>
       </c>
       <c r="G99">
-        <v>0.638254349512572</v>
+        <v>0.6379895235529069</v>
       </c>
       <c r="H99">
         <v>1.28</v>
@@ -6437,7 +6440,7 @@
         <v>1.1986</v>
       </c>
       <c r="L99">
-        <v>0.1125</v>
+        <v>0.41</v>
       </c>
       <c r="M99">
         <v>1.05088</v>
@@ -6452,19 +6455,19 @@
         <v>5525867</v>
       </c>
       <c r="Q99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U99" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6478,7 +6481,7 @@
         <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F100">
         <v>0.955</v>
@@ -6493,7 +6496,7 @@
         <v>1.642</v>
       </c>
       <c r="L100">
-        <v>0.46</v>
+        <v>0.85</v>
       </c>
       <c r="M100">
         <v>1.3164</v>
@@ -6508,19 +6511,19 @@
         <v>5525867</v>
       </c>
       <c r="Q100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U100" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6534,7 +6537,7 @@
         <v>49</v>
       </c>
       <c r="E101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F101">
         <v>0.955</v>
@@ -6549,7 +6552,7 @@
         <v>1.642</v>
       </c>
       <c r="L101">
-        <v>0.46</v>
+        <v>0.85</v>
       </c>
       <c r="M101">
         <v>1.3164</v>
@@ -6564,19 +6567,19 @@
         <v>5525867</v>
       </c>
       <c r="Q101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U101" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6590,7 +6593,7 @@
         <v>49</v>
       </c>
       <c r="E102" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F102">
         <v>0.054</v>
@@ -6605,7 +6608,7 @@
         <v>0.5472</v>
       </c>
       <c r="L102">
-        <v>0.045</v>
+        <v>0.043</v>
       </c>
       <c r="M102">
         <v>0.18356</v>
@@ -6620,19 +6623,19 @@
         <v>5525867</v>
       </c>
       <c r="Q102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U102" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6646,7 +6649,7 @@
         <v>49</v>
       </c>
       <c r="E103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F103">
         <v>0.054</v>
@@ -6661,7 +6664,7 @@
         <v>0.5472</v>
       </c>
       <c r="L103">
-        <v>0.045</v>
+        <v>0.043</v>
       </c>
       <c r="M103">
         <v>0.18356</v>
@@ -6676,19 +6679,19 @@
         <v>5525867</v>
       </c>
       <c r="Q103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U103" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6705,7 +6708,7 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F104">
         <v>0.0825</v>
@@ -6720,7 +6723,7 @@
         <v>0.489</v>
       </c>
       <c r="L104">
-        <v>0.1475</v>
+        <v>0.15</v>
       </c>
       <c r="M104">
         <v>0.3918</v>
@@ -6735,19 +6738,19 @@
         <v>5525867</v>
       </c>
       <c r="Q104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6764,7 +6767,7 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F105">
         <v>0.019</v>
@@ -6779,7 +6782,7 @@
         <v>0.0452</v>
       </c>
       <c r="L105">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="M105">
         <v>0.03664</v>
@@ -6794,19 +6797,19 @@
         <v>5525867</v>
       </c>
       <c r="Q105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6823,7 +6826,7 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F106">
         <v>0.019</v>
@@ -6838,7 +6841,7 @@
         <v>0.0452</v>
       </c>
       <c r="L106">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="M106">
         <v>0.03664</v>
@@ -6853,19 +6856,19 @@
         <v>5525867</v>
       </c>
       <c r="Q106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6882,13 +6885,13 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F107">
-        <v>398.5</v>
+        <v>398.4</v>
       </c>
       <c r="G107">
-        <v>1965.52796503285</v>
+        <v>1863.38584861667</v>
       </c>
       <c r="H107">
         <v>49000</v>
@@ -6903,7 +6906,7 @@
         <v>74.1379310344828</v>
       </c>
       <c r="L107">
-        <v>575</v>
+        <v>540</v>
       </c>
       <c r="M107">
         <v>1628</v>
@@ -6918,19 +6921,19 @@
         <v>5525867</v>
       </c>
       <c r="Q107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6947,13 +6950,13 @@
         <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F108">
-        <v>398.5</v>
+        <v>398.4</v>
       </c>
       <c r="G108">
-        <v>1965.52796503285</v>
+        <v>1863.38584861667</v>
       </c>
       <c r="H108">
         <v>49000</v>
@@ -6968,7 +6971,7 @@
         <v>74.1379310344828</v>
       </c>
       <c r="L108">
-        <v>575</v>
+        <v>540</v>
       </c>
       <c r="M108">
         <v>1628</v>
@@ -6983,19 +6986,19 @@
         <v>5525867</v>
       </c>
       <c r="Q108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U108" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7012,13 +7015,13 @@
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F109">
-        <v>398.5</v>
+        <v>398.4</v>
       </c>
       <c r="G109">
-        <v>1965.52796503285</v>
+        <v>1863.38584861667</v>
       </c>
       <c r="H109">
         <v>49000</v>
@@ -7033,7 +7036,7 @@
         <v>74.1379310344828</v>
       </c>
       <c r="L109">
-        <v>575</v>
+        <v>540</v>
       </c>
       <c r="M109">
         <v>1628</v>
@@ -7048,19 +7051,19 @@
         <v>5525867</v>
       </c>
       <c r="Q109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U109" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7077,13 +7080,13 @@
         <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F110">
-        <v>398.5</v>
+        <v>398.4</v>
       </c>
       <c r="G110">
-        <v>1965.52796503285</v>
+        <v>1863.38584861667</v>
       </c>
       <c r="H110">
         <v>49000</v>
@@ -7098,7 +7101,7 @@
         <v>74.1379310344828</v>
       </c>
       <c r="L110">
-        <v>575</v>
+        <v>540</v>
       </c>
       <c r="M110">
         <v>1628</v>
@@ -7113,19 +7116,19 @@
         <v>5525867</v>
       </c>
       <c r="Q110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7142,13 +7145,13 @@
         <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F111">
         <v>0.03284</v>
       </c>
       <c r="G111">
-        <v>0.0583099860549522</v>
+        <v>0.0583055723118577</v>
       </c>
       <c r="H111">
         <v>0.508041035176414</v>
@@ -7157,7 +7160,7 @@
         <v>0.24681</v>
       </c>
       <c r="L111">
-        <v>0.009469999999999999</v>
+        <v>0.01309</v>
       </c>
       <c r="M111">
         <v>0.0934</v>
@@ -7172,19 +7175,19 @@
         <v>5525867</v>
       </c>
       <c r="Q111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U111" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7201,13 +7204,13 @@
         <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F112">
         <v>0.03284</v>
       </c>
       <c r="G112">
-        <v>0.0583099860549522</v>
+        <v>0.0583055723118577</v>
       </c>
       <c r="H112">
         <v>0.508041035176414</v>
@@ -7216,7 +7219,7 @@
         <v>0.24681</v>
       </c>
       <c r="L112">
-        <v>0.009469999999999999</v>
+        <v>0.01309</v>
       </c>
       <c r="M112">
         <v>0.0934</v>
@@ -7231,19 +7234,19 @@
         <v>5525867</v>
       </c>
       <c r="Q112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U112" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7260,13 +7263,13 @@
         <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F113">
         <v>0.581</v>
       </c>
       <c r="G113">
-        <v>0.54190614929734</v>
+        <v>0.538421742025608</v>
       </c>
       <c r="H113">
         <v>1.19</v>
@@ -7275,7 +7278,7 @@
         <v>1.086</v>
       </c>
       <c r="L113">
-        <v>0.11389</v>
+        <v>0.228</v>
       </c>
       <c r="M113">
         <v>0.93544</v>
@@ -7290,19 +7293,19 @@
         <v>5525867</v>
       </c>
       <c r="Q113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U113" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7319,13 +7322,13 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F114">
         <v>0.581</v>
       </c>
       <c r="G114">
-        <v>0.54190614929734</v>
+        <v>0.538421742025608</v>
       </c>
       <c r="H114">
         <v>1.19</v>
@@ -7334,7 +7337,7 @@
         <v>1.086</v>
       </c>
       <c r="L114">
-        <v>0.11389</v>
+        <v>0.228</v>
       </c>
       <c r="M114">
         <v>0.93544</v>
@@ -7349,19 +7352,19 @@
         <v>5525867</v>
       </c>
       <c r="Q114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U114" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7375,13 +7378,13 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F115">
         <v>0.697</v>
       </c>
       <c r="G115">
-        <v>0.637323315029814</v>
+        <v>0.6370584890701479</v>
       </c>
       <c r="H115">
         <v>1.379</v>
@@ -7390,7 +7393,7 @@
         <v>1.248</v>
       </c>
       <c r="L115">
-        <v>0.082</v>
+        <v>0.246</v>
       </c>
       <c r="M115">
         <v>1.06628</v>
@@ -7405,19 +7408,19 @@
         <v>5525867</v>
       </c>
       <c r="Q115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U115" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7431,13 +7434,13 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F116">
         <v>0.697</v>
       </c>
       <c r="G116">
-        <v>0.637323315029814</v>
+        <v>0.6370584890701479</v>
       </c>
       <c r="H116">
         <v>1.379</v>
@@ -7446,7 +7449,7 @@
         <v>1.248</v>
       </c>
       <c r="L116">
-        <v>0.082</v>
+        <v>0.246</v>
       </c>
       <c r="M116">
         <v>1.06628</v>
@@ -7461,19 +7464,19 @@
         <v>5525867</v>
       </c>
       <c r="Q116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U116" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7487,7 +7490,7 @@
         <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F117">
         <v>0.96</v>
@@ -7502,7 +7505,7 @@
         <v>1.712</v>
       </c>
       <c r="L117">
-        <v>0.285</v>
+        <v>0.54</v>
       </c>
       <c r="M117">
         <v>1.3464</v>
@@ -7517,19 +7520,19 @@
         <v>5525867</v>
       </c>
       <c r="Q117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U117" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7543,7 +7546,7 @@
         <v>50</v>
       </c>
       <c r="E118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F118">
         <v>0.96</v>
@@ -7558,7 +7561,7 @@
         <v>1.712</v>
       </c>
       <c r="L118">
-        <v>0.285</v>
+        <v>0.54</v>
       </c>
       <c r="M118">
         <v>1.3464</v>
@@ -7573,19 +7576,19 @@
         <v>5525867</v>
       </c>
       <c r="Q118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U118" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7599,7 +7602,7 @@
         <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F119">
         <v>0.055</v>
@@ -7614,7 +7617,7 @@
         <v>0.5472</v>
       </c>
       <c r="L119">
-        <v>0.0505</v>
+        <v>0.047</v>
       </c>
       <c r="M119">
         <v>0.20932</v>
@@ -7629,19 +7632,19 @@
         <v>5525867</v>
       </c>
       <c r="Q119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U119" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7655,7 +7658,7 @@
         <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F120">
         <v>0.055</v>
@@ -7670,7 +7673,7 @@
         <v>0.5472</v>
       </c>
       <c r="L120">
-        <v>0.0505</v>
+        <v>0.047</v>
       </c>
       <c r="M120">
         <v>0.20932</v>
@@ -7685,19 +7688,19 @@
         <v>5525867</v>
       </c>
       <c r="Q120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U120" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7714,7 +7717,7 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F121">
         <v>0.1</v>
@@ -7729,7 +7732,7 @@
         <v>0.4885</v>
       </c>
       <c r="L121">
-        <v>0.12</v>
+        <v>0.315</v>
       </c>
       <c r="M121">
         <v>0.39</v>
@@ -7744,19 +7747,19 @@
         <v>5525867</v>
       </c>
       <c r="Q121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7773,7 +7776,7 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F122">
         <v>0.019</v>
@@ -7803,19 +7806,19 @@
         <v>5525867</v>
       </c>
       <c r="Q122" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7832,7 +7835,7 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F123">
         <v>0.019</v>
@@ -7862,19 +7865,19 @@
         <v>5525867</v>
       </c>
       <c r="Q123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7891,19 +7894,19 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F124">
-        <v>361.5</v>
+        <v>361.6</v>
       </c>
       <c r="G124">
-        <v>1656.20529461638</v>
+        <v>1656.16033062809</v>
       </c>
       <c r="H124">
         <v>49000</v>
       </c>
       <c r="I124">
-        <v>3768</v>
+        <v>3767.76</v>
       </c>
       <c r="J124">
         <v>36.2068965517241</v>
@@ -7912,7 +7915,7 @@
         <v>68.9655172413793</v>
       </c>
       <c r="L124">
-        <v>556</v>
+        <v>410</v>
       </c>
       <c r="M124">
         <v>1464</v>
@@ -7927,19 +7930,19 @@
         <v>5525867</v>
       </c>
       <c r="Q124" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7956,19 +7959,19 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F125">
-        <v>361.5</v>
+        <v>361.6</v>
       </c>
       <c r="G125">
-        <v>1656.20529461638</v>
+        <v>1656.16033062809</v>
       </c>
       <c r="H125">
         <v>49000</v>
       </c>
       <c r="I125">
-        <v>3768</v>
+        <v>3767.76</v>
       </c>
       <c r="J125">
         <v>36.2068965517241</v>
@@ -7977,7 +7980,7 @@
         <v>68.9655172413793</v>
       </c>
       <c r="L125">
-        <v>556</v>
+        <v>410</v>
       </c>
       <c r="M125">
         <v>1464</v>
@@ -7992,19 +7995,19 @@
         <v>5525867</v>
       </c>
       <c r="Q125" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U125" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8021,19 +8024,19 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F126">
-        <v>361.5</v>
+        <v>361.6</v>
       </c>
       <c r="G126">
-        <v>1656.20529461638</v>
+        <v>1656.16033062809</v>
       </c>
       <c r="H126">
         <v>49000</v>
       </c>
       <c r="I126">
-        <v>3768</v>
+        <v>3767.76</v>
       </c>
       <c r="J126">
         <v>36.2068965517241</v>
@@ -8042,7 +8045,7 @@
         <v>68.9655172413793</v>
       </c>
       <c r="L126">
-        <v>556</v>
+        <v>410</v>
       </c>
       <c r="M126">
         <v>1464</v>
@@ -8057,19 +8060,19 @@
         <v>5525867</v>
       </c>
       <c r="Q126" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U126" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8086,19 +8089,19 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F127">
-        <v>361.5</v>
+        <v>361.6</v>
       </c>
       <c r="G127">
-        <v>1656.20529461638</v>
+        <v>1656.16033062809</v>
       </c>
       <c r="H127">
         <v>49000</v>
       </c>
       <c r="I127">
-        <v>3768</v>
+        <v>3767.76</v>
       </c>
       <c r="J127">
         <v>36.2068965517241</v>
@@ -8107,7 +8110,7 @@
         <v>68.9655172413793</v>
       </c>
       <c r="L127">
-        <v>556</v>
+        <v>410</v>
       </c>
       <c r="M127">
         <v>1464</v>
@@ -8122,19 +8125,19 @@
         <v>5525867</v>
       </c>
       <c r="Q127" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U127" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8151,13 +8154,13 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F128">
         <v>0.02355</v>
       </c>
       <c r="G128">
-        <v>0.0606936875191013</v>
+        <v>0.0606893586556817</v>
       </c>
       <c r="H128">
         <v>0.508041035176414</v>
@@ -8166,7 +8169,7 @@
         <v>0.25202</v>
       </c>
       <c r="L128">
-        <v>0.00758</v>
+        <v>0.0107</v>
       </c>
       <c r="M128">
         <v>0.09322</v>
@@ -8181,19 +8184,19 @@
         <v>5525867</v>
       </c>
       <c r="Q128" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U128" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8210,13 +8213,13 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F129">
         <v>0.02355</v>
       </c>
       <c r="G129">
-        <v>0.0606936875191013</v>
+        <v>0.0606893586556817</v>
       </c>
       <c r="H129">
         <v>0.508041035176414</v>
@@ -8225,7 +8228,7 @@
         <v>0.25202</v>
       </c>
       <c r="L129">
-        <v>0.00758</v>
+        <v>0.0107</v>
       </c>
       <c r="M129">
         <v>0.09322</v>
@@ -8240,19 +8243,19 @@
         <v>5525867</v>
       </c>
       <c r="Q129" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U129" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8269,13 +8272,13 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F130">
         <v>0.5335</v>
       </c>
       <c r="G130">
-        <v>0.510992356193892</v>
+        <v>0.507507948922159</v>
       </c>
       <c r="H130">
         <v>1.19</v>
@@ -8284,7 +8287,7 @@
         <v>1.086</v>
       </c>
       <c r="L130">
-        <v>0.1115</v>
+        <v>0.117</v>
       </c>
       <c r="M130">
         <v>0.92284</v>
@@ -8299,19 +8302,19 @@
         <v>5525867</v>
       </c>
       <c r="Q130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U130" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8328,13 +8331,13 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F131">
         <v>0.5335</v>
       </c>
       <c r="G131">
-        <v>0.510992356193892</v>
+        <v>0.507507948922159</v>
       </c>
       <c r="H131">
         <v>1.19</v>
@@ -8343,7 +8346,7 @@
         <v>1.086</v>
       </c>
       <c r="L131">
-        <v>0.1115</v>
+        <v>0.117</v>
       </c>
       <c r="M131">
         <v>0.92284</v>
@@ -8358,19 +8361,19 @@
         <v>5525867</v>
       </c>
       <c r="Q131" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U131" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8384,13 +8387,13 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F132">
         <v>0.6565</v>
       </c>
       <c r="G132">
-        <v>0.60615090123671</v>
+        <v>0.605886075277045</v>
       </c>
       <c r="H132">
         <v>1.379</v>
@@ -8399,7 +8402,7 @@
         <v>1.2218</v>
       </c>
       <c r="L132">
-        <v>0.082</v>
+        <v>0.186</v>
       </c>
       <c r="M132">
         <v>1.06628</v>
@@ -8414,19 +8417,19 @@
         <v>5525867</v>
       </c>
       <c r="Q132" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U132" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8440,13 +8443,13 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F133">
         <v>0.6565</v>
       </c>
       <c r="G133">
-        <v>0.60615090123671</v>
+        <v>0.605886075277045</v>
       </c>
       <c r="H133">
         <v>1.379</v>
@@ -8455,7 +8458,7 @@
         <v>1.2218</v>
       </c>
       <c r="L133">
-        <v>0.082</v>
+        <v>0.186</v>
       </c>
       <c r="M133">
         <v>1.06628</v>
@@ -8470,19 +8473,19 @@
         <v>5525867</v>
       </c>
       <c r="Q133" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U133" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8496,7 +8499,7 @@
         <v>51</v>
       </c>
       <c r="E134" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F134">
         <v>0.865</v>
@@ -8511,7 +8514,7 @@
         <v>1.684</v>
       </c>
       <c r="L134">
-        <v>0.285</v>
+        <v>0.41</v>
       </c>
       <c r="M134">
         <v>1.2948</v>
@@ -8526,19 +8529,19 @@
         <v>5525867</v>
       </c>
       <c r="Q134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U134" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8552,7 +8555,7 @@
         <v>51</v>
       </c>
       <c r="E135" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F135">
         <v>0.865</v>
@@ -8567,7 +8570,7 @@
         <v>1.684</v>
       </c>
       <c r="L135">
-        <v>0.285</v>
+        <v>0.41</v>
       </c>
       <c r="M135">
         <v>1.2948</v>
@@ -8582,19 +8585,19 @@
         <v>5525867</v>
       </c>
       <c r="Q135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U135" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8608,7 +8611,7 @@
         <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F136">
         <v>0.054</v>
@@ -8623,7 +8626,7 @@
         <v>0.48</v>
       </c>
       <c r="L136">
-        <v>0.0505</v>
+        <v>0.047</v>
       </c>
       <c r="M136">
         <v>0.18356</v>
@@ -8638,19 +8641,19 @@
         <v>5525867</v>
       </c>
       <c r="Q136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U136" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8664,7 +8667,7 @@
         <v>51</v>
       </c>
       <c r="E137" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F137">
         <v>0.054</v>
@@ -8679,7 +8682,7 @@
         <v>0.48</v>
       </c>
       <c r="L137">
-        <v>0.0505</v>
+        <v>0.047</v>
       </c>
       <c r="M137">
         <v>0.18356</v>
@@ -8694,19 +8697,1028 @@
         <v>5525867</v>
       </c>
       <c r="Q137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U137" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" t="s">
+        <v>39</v>
+      </c>
+      <c r="D138" t="s">
+        <v>52</v>
+      </c>
+      <c r="E138" t="s">
+        <v>53</v>
+      </c>
+      <c r="F138">
+        <v>0.1475</v>
+      </c>
+      <c r="G138">
+        <v>0.208375</v>
+      </c>
+      <c r="H138">
+        <v>0.49</v>
+      </c>
+      <c r="I138">
+        <v>0.478</v>
+      </c>
+      <c r="L138">
+        <v>0.365</v>
+      </c>
+      <c r="M138">
+        <v>0.3918</v>
+      </c>
+      <c r="N138">
+        <v>0.4588</v>
+      </c>
+      <c r="O138">
+        <v>1806649.9</v>
+      </c>
+      <c r="P138">
+        <v>5525867</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>54</v>
+      </c>
+      <c r="R138" t="s">
+        <v>55</v>
+      </c>
+      <c r="S138" t="s">
+        <v>56</v>
+      </c>
+      <c r="T138" t="s">
+        <v>57</v>
+      </c>
+      <c r="U138" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" t="s">
+        <v>40</v>
+      </c>
+      <c r="D139" t="s">
+        <v>52</v>
+      </c>
+      <c r="E139" t="s">
+        <v>53</v>
+      </c>
+      <c r="F139">
+        <v>0.0185</v>
+      </c>
+      <c r="G139">
+        <v>0.0211724137931034</v>
+      </c>
+      <c r="H139">
+        <v>0.117</v>
+      </c>
+      <c r="I139">
+        <v>0.0428</v>
+      </c>
+      <c r="L139">
+        <v>0.019</v>
+      </c>
+      <c r="M139">
+        <v>0.03</v>
+      </c>
+      <c r="N139">
+        <v>0.03686</v>
+      </c>
+      <c r="O139">
+        <v>1806649.9</v>
+      </c>
+      <c r="P139">
+        <v>5525867</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>54</v>
+      </c>
+      <c r="R139" t="s">
+        <v>55</v>
+      </c>
+      <c r="S139" t="s">
+        <v>56</v>
+      </c>
+      <c r="T139" t="s">
+        <v>57</v>
+      </c>
+      <c r="U139" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" t="s">
+        <v>52</v>
+      </c>
+      <c r="E140" t="s">
+        <v>53</v>
+      </c>
+      <c r="F140">
+        <v>0.0185</v>
+      </c>
+      <c r="G140">
+        <v>0.0211724137931034</v>
+      </c>
+      <c r="H140">
+        <v>0.117</v>
+      </c>
+      <c r="I140">
+        <v>0.0428</v>
+      </c>
+      <c r="L140">
+        <v>0.019</v>
+      </c>
+      <c r="M140">
+        <v>0.03</v>
+      </c>
+      <c r="N140">
+        <v>0.03686</v>
+      </c>
+      <c r="O140">
+        <v>1806649.9</v>
+      </c>
+      <c r="P140">
+        <v>5525867</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>54</v>
+      </c>
+      <c r="R140" t="s">
+        <v>55</v>
+      </c>
+      <c r="S140" t="s">
+        <v>56</v>
+      </c>
+      <c r="T140" t="s">
+        <v>57</v>
+      </c>
+      <c r="U140" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" t="s">
+        <v>41</v>
+      </c>
+      <c r="D141" t="s">
+        <v>52</v>
+      </c>
+      <c r="E141" t="s">
+        <v>53</v>
+      </c>
+      <c r="F141">
+        <v>346</v>
+      </c>
+      <c r="G141">
+        <v>841.632744421198</v>
+      </c>
+      <c r="H141">
+        <v>7900</v>
+      </c>
+      <c r="I141">
+        <v>3168.96</v>
+      </c>
+      <c r="J141">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K141">
+        <v>63.7931034482759</v>
+      </c>
+      <c r="L141">
+        <v>340</v>
+      </c>
+      <c r="M141">
+        <v>1439.424</v>
+      </c>
+      <c r="N141">
+        <v>2500</v>
+      </c>
+      <c r="O141">
+        <v>1806649.9</v>
+      </c>
+      <c r="P141">
+        <v>5525867</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>54</v>
+      </c>
+      <c r="R141" t="s">
+        <v>55</v>
+      </c>
+      <c r="S141" t="s">
+        <v>56</v>
+      </c>
+      <c r="T141" t="s">
+        <v>57</v>
+      </c>
+      <c r="U141" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142" t="s">
+        <v>41</v>
+      </c>
+      <c r="D142" t="s">
+        <v>52</v>
+      </c>
+      <c r="E142" t="s">
+        <v>53</v>
+      </c>
+      <c r="F142">
+        <v>346</v>
+      </c>
+      <c r="G142">
+        <v>841.632744421198</v>
+      </c>
+      <c r="H142">
+        <v>7900</v>
+      </c>
+      <c r="I142">
+        <v>3168.96</v>
+      </c>
+      <c r="J142">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K142">
+        <v>63.7931034482759</v>
+      </c>
+      <c r="L142">
+        <v>340</v>
+      </c>
+      <c r="M142">
+        <v>1439.424</v>
+      </c>
+      <c r="N142">
+        <v>2500</v>
+      </c>
+      <c r="O142">
+        <v>1806649.9</v>
+      </c>
+      <c r="P142">
+        <v>5525867</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>54</v>
+      </c>
+      <c r="R142" t="s">
+        <v>55</v>
+      </c>
+      <c r="S142" t="s">
+        <v>56</v>
+      </c>
+      <c r="T142" t="s">
+        <v>57</v>
+      </c>
+      <c r="U142" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" t="s">
+        <v>41</v>
+      </c>
+      <c r="D143" t="s">
+        <v>52</v>
+      </c>
+      <c r="E143" t="s">
+        <v>53</v>
+      </c>
+      <c r="F143">
+        <v>346</v>
+      </c>
+      <c r="G143">
+        <v>841.632744421198</v>
+      </c>
+      <c r="H143">
+        <v>7900</v>
+      </c>
+      <c r="I143">
+        <v>3168.96</v>
+      </c>
+      <c r="J143">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K143">
+        <v>63.7931034482759</v>
+      </c>
+      <c r="L143">
+        <v>340</v>
+      </c>
+      <c r="M143">
+        <v>1439.424</v>
+      </c>
+      <c r="N143">
+        <v>2500</v>
+      </c>
+      <c r="O143">
+        <v>1806649.9</v>
+      </c>
+      <c r="P143">
+        <v>5525867</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>54</v>
+      </c>
+      <c r="R143" t="s">
+        <v>55</v>
+      </c>
+      <c r="S143" t="s">
+        <v>56</v>
+      </c>
+      <c r="T143" t="s">
+        <v>57</v>
+      </c>
+      <c r="U143" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21">
+      <c r="A144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>28</v>
+      </c>
+      <c r="C144" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144" t="s">
+        <v>52</v>
+      </c>
+      <c r="E144" t="s">
+        <v>53</v>
+      </c>
+      <c r="F144">
+        <v>346</v>
+      </c>
+      <c r="G144">
+        <v>841.632744421198</v>
+      </c>
+      <c r="H144">
+        <v>7900</v>
+      </c>
+      <c r="I144">
+        <v>3168.96</v>
+      </c>
+      <c r="J144">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K144">
+        <v>63.7931034482759</v>
+      </c>
+      <c r="L144">
+        <v>340</v>
+      </c>
+      <c r="M144">
+        <v>1439.424</v>
+      </c>
+      <c r="N144">
+        <v>2500</v>
+      </c>
+      <c r="O144">
+        <v>1806649.9</v>
+      </c>
+      <c r="P144">
+        <v>5525867</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>54</v>
+      </c>
+      <c r="R144" t="s">
+        <v>55</v>
+      </c>
+      <c r="S144" t="s">
+        <v>56</v>
+      </c>
+      <c r="T144" t="s">
+        <v>57</v>
+      </c>
+      <c r="U144" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21">
+      <c r="A145" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" t="s">
+        <v>52</v>
+      </c>
+      <c r="E145" t="s">
+        <v>53</v>
+      </c>
+      <c r="F145">
+        <v>0.03443</v>
+      </c>
+      <c r="G145">
+        <v>0.07024751506124299</v>
+      </c>
+      <c r="H145">
+        <v>0.521801852661968</v>
+      </c>
+      <c r="I145">
+        <v>0.34591</v>
+      </c>
+      <c r="L145">
+        <v>0.01114</v>
+      </c>
+      <c r="M145">
+        <v>0.09873999999999999</v>
+      </c>
+      <c r="N145">
+        <v>0.15998</v>
+      </c>
+      <c r="O145">
+        <v>1806649.9</v>
+      </c>
+      <c r="P145">
+        <v>5525867</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>54</v>
+      </c>
+      <c r="R145" t="s">
+        <v>55</v>
+      </c>
+      <c r="S145" t="s">
+        <v>56</v>
+      </c>
+      <c r="T145" t="s">
+        <v>57</v>
+      </c>
+      <c r="U145" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146" t="s">
+        <v>42</v>
+      </c>
+      <c r="D146" t="s">
+        <v>52</v>
+      </c>
+      <c r="E146" t="s">
+        <v>53</v>
+      </c>
+      <c r="F146">
+        <v>0.03443</v>
+      </c>
+      <c r="G146">
+        <v>0.07024751506124299</v>
+      </c>
+      <c r="H146">
+        <v>0.521801852661968</v>
+      </c>
+      <c r="I146">
+        <v>0.34591</v>
+      </c>
+      <c r="L146">
+        <v>0.01114</v>
+      </c>
+      <c r="M146">
+        <v>0.09873999999999999</v>
+      </c>
+      <c r="N146">
+        <v>0.15998</v>
+      </c>
+      <c r="O146">
+        <v>1806649.9</v>
+      </c>
+      <c r="P146">
+        <v>5525867</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>54</v>
+      </c>
+      <c r="R146" t="s">
+        <v>55</v>
+      </c>
+      <c r="S146" t="s">
+        <v>56</v>
+      </c>
+      <c r="T146" t="s">
+        <v>57</v>
+      </c>
+      <c r="U146" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21">
+      <c r="A147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" t="s">
+        <v>31</v>
+      </c>
+      <c r="C147" t="s">
+        <v>43</v>
+      </c>
+      <c r="D147" t="s">
+        <v>52</v>
+      </c>
+      <c r="E147" t="s">
+        <v>53</v>
+      </c>
+      <c r="F147">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G147">
+        <v>0.518071167609931</v>
+      </c>
+      <c r="H147">
+        <v>1.19</v>
+      </c>
+      <c r="I147">
+        <v>1.046</v>
+      </c>
+      <c r="L147">
+        <v>0.176</v>
+      </c>
+      <c r="M147">
+        <v>0.88412</v>
+      </c>
+      <c r="N147">
+        <v>1.01356</v>
+      </c>
+      <c r="O147">
+        <v>1806649.9</v>
+      </c>
+      <c r="P147">
+        <v>5525867</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>54</v>
+      </c>
+      <c r="R147" t="s">
+        <v>55</v>
+      </c>
+      <c r="S147" t="s">
+        <v>56</v>
+      </c>
+      <c r="T147" t="s">
+        <v>57</v>
+      </c>
+      <c r="U147" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21">
+      <c r="A148" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" t="s">
+        <v>32</v>
+      </c>
+      <c r="C148" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148" t="s">
+        <v>52</v>
+      </c>
+      <c r="E148" t="s">
+        <v>53</v>
+      </c>
+      <c r="F148">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G148">
+        <v>0.518071167609931</v>
+      </c>
+      <c r="H148">
+        <v>1.19</v>
+      </c>
+      <c r="I148">
+        <v>1.046</v>
+      </c>
+      <c r="L148">
+        <v>0.176</v>
+      </c>
+      <c r="M148">
+        <v>0.88412</v>
+      </c>
+      <c r="N148">
+        <v>1.01356</v>
+      </c>
+      <c r="O148">
+        <v>1806649.9</v>
+      </c>
+      <c r="P148">
+        <v>5525867</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>54</v>
+      </c>
+      <c r="R148" t="s">
+        <v>55</v>
+      </c>
+      <c r="S148" t="s">
+        <v>56</v>
+      </c>
+      <c r="T148" t="s">
+        <v>57</v>
+      </c>
+      <c r="U148" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>33</v>
+      </c>
+      <c r="D149" t="s">
+        <v>52</v>
+      </c>
+      <c r="E149" t="s">
+        <v>53</v>
+      </c>
+      <c r="F149">
+        <v>0.644</v>
+      </c>
+      <c r="G149">
+        <v>0.632805431068024</v>
+      </c>
+      <c r="H149">
+        <v>1.425</v>
+      </c>
+      <c r="I149">
+        <v>1.243</v>
+      </c>
+      <c r="L149">
+        <v>0.188</v>
+      </c>
+      <c r="M149">
+        <v>1.129</v>
+      </c>
+      <c r="N149">
+        <v>1.23028</v>
+      </c>
+      <c r="O149">
+        <v>1806649.9</v>
+      </c>
+      <c r="P149">
+        <v>5525867</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>54</v>
+      </c>
+      <c r="R149" t="s">
+        <v>55</v>
+      </c>
+      <c r="S149" t="s">
+        <v>56</v>
+      </c>
+      <c r="T149" t="s">
+        <v>57</v>
+      </c>
+      <c r="U149" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21">
+      <c r="A150" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" t="s">
+        <v>52</v>
+      </c>
+      <c r="E150" t="s">
+        <v>53</v>
+      </c>
+      <c r="F150">
+        <v>0.644</v>
+      </c>
+      <c r="G150">
+        <v>0.632805431068024</v>
+      </c>
+      <c r="H150">
+        <v>1.425</v>
+      </c>
+      <c r="I150">
+        <v>1.243</v>
+      </c>
+      <c r="L150">
+        <v>0.188</v>
+      </c>
+      <c r="M150">
+        <v>1.129</v>
+      </c>
+      <c r="N150">
+        <v>1.23028</v>
+      </c>
+      <c r="O150">
+        <v>1806649.9</v>
+      </c>
+      <c r="P150">
+        <v>5525867</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>54</v>
+      </c>
+      <c r="R150" t="s">
+        <v>55</v>
+      </c>
+      <c r="S150" t="s">
+        <v>56</v>
+      </c>
+      <c r="T150" t="s">
+        <v>57</v>
+      </c>
+      <c r="U150" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21">
+      <c r="A151" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" t="s">
+        <v>35</v>
+      </c>
+      <c r="D151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E151" t="s">
+        <v>53</v>
+      </c>
+      <c r="F151">
+        <v>0.865</v>
+      </c>
+      <c r="G151">
+        <v>0.865689655172414</v>
+      </c>
+      <c r="H151">
+        <v>2.47</v>
+      </c>
+      <c r="I151">
+        <v>1.676</v>
+      </c>
+      <c r="L151">
+        <v>0.41</v>
+      </c>
+      <c r="M151">
+        <v>1.3364</v>
+      </c>
+      <c r="N151">
+        <v>1.4686</v>
+      </c>
+      <c r="O151">
+        <v>1806649.9</v>
+      </c>
+      <c r="P151">
+        <v>5525867</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>54</v>
+      </c>
+      <c r="R151" t="s">
+        <v>55</v>
+      </c>
+      <c r="S151" t="s">
+        <v>56</v>
+      </c>
+      <c r="T151" t="s">
+        <v>57</v>
+      </c>
+      <c r="U151" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21">
+      <c r="A152" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152" t="s">
+        <v>36</v>
+      </c>
+      <c r="D152" t="s">
+        <v>52</v>
+      </c>
+      <c r="E152" t="s">
+        <v>53</v>
+      </c>
+      <c r="F152">
+        <v>0.865</v>
+      </c>
+      <c r="G152">
+        <v>0.865689655172414</v>
+      </c>
+      <c r="H152">
+        <v>2.47</v>
+      </c>
+      <c r="I152">
+        <v>1.676</v>
+      </c>
+      <c r="L152">
+        <v>0.41</v>
+      </c>
+      <c r="M152">
+        <v>1.3364</v>
+      </c>
+      <c r="N152">
+        <v>1.4686</v>
+      </c>
+      <c r="O152">
+        <v>1806649.9</v>
+      </c>
+      <c r="P152">
+        <v>5525867</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>54</v>
+      </c>
+      <c r="R152" t="s">
+        <v>55</v>
+      </c>
+      <c r="S152" t="s">
+        <v>56</v>
+      </c>
+      <c r="T152" t="s">
+        <v>57</v>
+      </c>
+      <c r="U152" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" t="s">
+        <v>37</v>
+      </c>
+      <c r="D153" t="s">
+        <v>52</v>
+      </c>
+      <c r="E153" t="s">
+        <v>53</v>
+      </c>
+      <c r="F153">
+        <v>0.0485</v>
+      </c>
+      <c r="G153">
+        <v>0.100086206896552</v>
+      </c>
+      <c r="H153">
+        <v>0.531</v>
+      </c>
+      <c r="I153">
+        <v>0.372</v>
+      </c>
+      <c r="L153">
+        <v>0.043</v>
+      </c>
+      <c r="M153">
+        <v>0.16692</v>
+      </c>
+      <c r="N153">
+        <v>0.3277</v>
+      </c>
+      <c r="O153">
+        <v>1806649.9</v>
+      </c>
+      <c r="P153">
+        <v>5525867</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>54</v>
+      </c>
+      <c r="R153" t="s">
+        <v>55</v>
+      </c>
+      <c r="S153" t="s">
+        <v>56</v>
+      </c>
+      <c r="T153" t="s">
+        <v>57</v>
+      </c>
+      <c r="U153" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21">
+      <c r="A154" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154" t="s">
+        <v>38</v>
+      </c>
+      <c r="D154" t="s">
+        <v>52</v>
+      </c>
+      <c r="E154" t="s">
+        <v>53</v>
+      </c>
+      <c r="F154">
+        <v>0.0485</v>
+      </c>
+      <c r="G154">
+        <v>0.100086206896552</v>
+      </c>
+      <c r="H154">
+        <v>0.531</v>
+      </c>
+      <c r="I154">
+        <v>0.372</v>
+      </c>
+      <c r="L154">
+        <v>0.043</v>
+      </c>
+      <c r="M154">
+        <v>0.16692</v>
+      </c>
+      <c r="N154">
+        <v>0.3277</v>
+      </c>
+      <c r="O154">
+        <v>1806649.9</v>
+      </c>
+      <c r="P154">
+        <v>5525867</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>54</v>
+      </c>
+      <c r="R154" t="s">
+        <v>55</v>
+      </c>
+      <c r="S154" t="s">
+        <v>56</v>
+      </c>
+      <c r="T154" t="s">
+        <v>57</v>
+      </c>
+      <c r="U154" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
